--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R342"/>
+  <dimension ref="A1:R348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17811,10 +17811,18 @@
       <c r="B342" t="n">
         <v>396.4823529411765</v>
       </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr"/>
-      <c r="E342" t="inlineStr"/>
-      <c r="F342" t="inlineStr"/>
+      <c r="C342" t="n">
+        <v>400.75</v>
+      </c>
+      <c r="D342" t="n">
+        <v>406.8263157894737</v>
+      </c>
+      <c r="E342" t="n">
+        <v>393.2133333333333</v>
+      </c>
+      <c r="F342" t="n">
+        <v>375.8475862068966</v>
+      </c>
       <c r="G342" t="n">
         <v>350.0523529411765</v>
       </c>
@@ -17836,15 +17844,357 @@
       <c r="M342" t="n">
         <v>408.42</v>
       </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="N342" t="n">
+        <v>408.5866666666667</v>
+      </c>
       <c r="O342" t="n">
         <v>389.8481481481481</v>
       </c>
       <c r="P342" t="n">
         <v>366.4581481481482</v>
       </c>
-      <c r="Q342" t="inlineStr"/>
+      <c r="Q342" t="n">
+        <v>364.7281481481481</v>
+      </c>
       <c r="R342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>394.2158823529412</v>
+      </c>
+      <c r="C343" t="n">
+        <v>395.0284615384616</v>
+      </c>
+      <c r="D343" t="n">
+        <v>370.611052631579</v>
+      </c>
+      <c r="E343" t="n">
+        <v>363.5833333333333</v>
+      </c>
+      <c r="F343" t="n">
+        <v>358.2224137931034</v>
+      </c>
+      <c r="G343" t="n">
+        <v>349.8658823529412</v>
+      </c>
+      <c r="H343" t="n">
+        <v>356.4189743589744</v>
+      </c>
+      <c r="I343" t="n">
+        <v>360.110909090909</v>
+      </c>
+      <c r="J343" t="n">
+        <v>360.7175510204082</v>
+      </c>
+      <c r="K343" t="n">
+        <v>366.4137037037037</v>
+      </c>
+      <c r="L343" t="n">
+        <v>380.0875</v>
+      </c>
+      <c r="M343" t="n">
+        <v>370.9992307692308</v>
+      </c>
+      <c r="N343" t="n">
+        <v>370.6666666666667</v>
+      </c>
+      <c r="O343" t="n">
+        <v>370.3737037037037</v>
+      </c>
+      <c r="P343" t="n">
+        <v>370.4937037037037</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>355.7337037037037</v>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>383.1294117647059</v>
+      </c>
+      <c r="C344" t="n">
+        <v>386.5869230769231</v>
+      </c>
+      <c r="D344" t="n">
+        <v>374.5557894736842</v>
+      </c>
+      <c r="E344" t="n">
+        <v>369.7333333333333</v>
+      </c>
+      <c r="F344" t="n">
+        <v>369.6172413793104</v>
+      </c>
+      <c r="G344" t="n">
+        <v>346.1794117647058</v>
+      </c>
+      <c r="H344" t="n">
+        <v>362.7712820512821</v>
+      </c>
+      <c r="I344" t="n">
+        <v>368.329090909091</v>
+      </c>
+      <c r="J344" t="n">
+        <v>346.26</v>
+      </c>
+      <c r="K344" t="n">
+        <v>363.8392592592592</v>
+      </c>
+      <c r="L344" t="n">
+        <v>363.985</v>
+      </c>
+      <c r="M344" t="n">
+        <v>372.7584615384616</v>
+      </c>
+      <c r="N344" t="n">
+        <v>368.5866666666667</v>
+      </c>
+      <c r="O344" t="n">
+        <v>368.3792592592592</v>
+      </c>
+      <c r="P344" t="n">
+        <v>368.5992592592592</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>356.1892592592592</v>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>414.9041176470589</v>
+      </c>
+      <c r="C345" t="n">
+        <v>415.98</v>
+      </c>
+      <c r="D345" t="n">
+        <v>403.3110526315789</v>
+      </c>
+      <c r="E345" t="n">
+        <v>374.8933333333333</v>
+      </c>
+      <c r="F345" t="n">
+        <v>361.4082758620689</v>
+      </c>
+      <c r="G345" t="n">
+        <v>341.0541176470588</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="n">
+        <v>394.8372727272728</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>390.9092592592592</v>
+      </c>
+      <c r="L345" t="n">
+        <v>396.8425</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr"/>
+      <c r="O345" t="n">
+        <v>413.1092592592593</v>
+      </c>
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>389.2082352941176</v>
+      </c>
+      <c r="C346" t="n">
+        <v>388.6023076923077</v>
+      </c>
+      <c r="D346" t="n">
+        <v>374.4621052631579</v>
+      </c>
+      <c r="E346" t="n">
+        <v>372.64</v>
+      </c>
+      <c r="F346" t="n">
+        <v>367.9582758620689</v>
+      </c>
+      <c r="G346" t="n">
+        <v>359.9482352941176</v>
+      </c>
+      <c r="H346" t="n">
+        <v>365.0115384615385</v>
+      </c>
+      <c r="I346" t="n">
+        <v>365.2281818181818</v>
+      </c>
+      <c r="J346" t="n">
+        <v>351.2602040816327</v>
+      </c>
+      <c r="K346" t="n">
+        <v>351.3744444444445</v>
+      </c>
+      <c r="L346" t="n">
+        <v>346.6725</v>
+      </c>
+      <c r="M346" t="n">
+        <v>358.8761538461538</v>
+      </c>
+      <c r="N346" t="n">
+        <v>352.4</v>
+      </c>
+      <c r="O346" t="inlineStr"/>
+      <c r="P346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr"/>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>394.6688235294118</v>
+      </c>
+      <c r="C347" t="n">
+        <v>391.7230769230769</v>
+      </c>
+      <c r="D347" t="n">
+        <v>378.8694736842105</v>
+      </c>
+      <c r="E347" t="n">
+        <v>356.1766666666667</v>
+      </c>
+      <c r="F347" t="n">
+        <v>340.8520689655173</v>
+      </c>
+      <c r="G347" t="n">
+        <v>328.1188235294118</v>
+      </c>
+      <c r="H347" t="n">
+        <v>380.5887179487179</v>
+      </c>
+      <c r="I347" t="n">
+        <v>391.6763636363637</v>
+      </c>
+      <c r="J347" t="n">
+        <v>378.3736734693878</v>
+      </c>
+      <c r="K347" t="n">
+        <v>384.9096296296296</v>
+      </c>
+      <c r="L347" t="n">
+        <v>370.9425</v>
+      </c>
+      <c r="M347" t="n">
+        <v>387.5015384615385</v>
+      </c>
+      <c r="N347" t="n">
+        <v>392.6133333333333</v>
+      </c>
+      <c r="O347" t="n">
+        <v>391.3696296296296</v>
+      </c>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>376.68</v>
+      </c>
+      <c r="C348" t="n">
+        <v>377.5384615384616</v>
+      </c>
+      <c r="D348" t="n">
+        <v>370.9752631578947</v>
+      </c>
+      <c r="E348" t="n">
+        <v>369.21</v>
+      </c>
+      <c r="F348" t="n">
+        <v>365.7534482758621</v>
+      </c>
+      <c r="G348" t="n">
+        <v>351.31</v>
+      </c>
+      <c r="H348" t="n">
+        <v>364.7523076923077</v>
+      </c>
+      <c r="I348" t="n">
+        <v>368.129090909091</v>
+      </c>
+      <c r="J348" t="n">
+        <v>349.1897959183673</v>
+      </c>
+      <c r="K348" t="n">
+        <v>353.4133333333333</v>
+      </c>
+      <c r="L348" t="n">
+        <v>362.1125</v>
+      </c>
+      <c r="M348" t="n">
+        <v>369.5692307692308</v>
+      </c>
+      <c r="N348" t="n">
+        <v>369.21</v>
+      </c>
+      <c r="O348" t="n">
+        <v>362.9533333333333</v>
+      </c>
+      <c r="P348" t="n">
+        <v>369.6833333333333</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>351.8833333333333</v>
+      </c>
+      <c r="R348" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17861,7 +18211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21459,6 +21809,66 @@
       </c>
       <c r="B359" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
@@ -21627,28 +22037,28 @@
         <v>0.1151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4809079106457735</v>
+        <v>-0.432380024328321</v>
       </c>
       <c r="J2" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K2" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03181916170674448</v>
+        <v>0.02661815464819417</v>
       </c>
       <c r="M2" t="n">
-        <v>15.33136484712833</v>
+        <v>15.26036373760784</v>
       </c>
       <c r="N2" t="n">
-        <v>392.599195203581</v>
+        <v>389.4550776808549</v>
       </c>
       <c r="O2" t="n">
-        <v>19.81411605910244</v>
+        <v>19.73461622836519</v>
       </c>
       <c r="P2" t="n">
-        <v>393.0506487464122</v>
+        <v>392.5784146187194</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -21704,28 +22114,28 @@
         <v>0.0809</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.289430461889801</v>
+        <v>-0.207351204932897</v>
       </c>
       <c r="J3" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K3" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008381003232803219</v>
+        <v>0.004494261109749043</v>
       </c>
       <c r="M3" t="n">
-        <v>17.17370828794873</v>
+        <v>17.09380548708271</v>
       </c>
       <c r="N3" t="n">
-        <v>546.0546236775757</v>
+        <v>540.07021753964</v>
       </c>
       <c r="O3" t="n">
-        <v>23.36781170066157</v>
+        <v>23.23941086903108</v>
       </c>
       <c r="P3" t="n">
-        <v>385.7589168690528</v>
+        <v>384.9698313682543</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -21781,28 +22191,28 @@
         <v>0.121</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3870903359932508</v>
+        <v>-0.3502234951134265</v>
       </c>
       <c r="J4" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K4" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0249545657387068</v>
+        <v>0.02121003864714166</v>
       </c>
       <c r="M4" t="n">
-        <v>13.92684110767629</v>
+        <v>13.84160535472027</v>
       </c>
       <c r="N4" t="n">
-        <v>319.4548358980651</v>
+        <v>317.4902569103061</v>
       </c>
       <c r="O4" t="n">
-        <v>17.87329952465591</v>
+        <v>17.8182562814184</v>
       </c>
       <c r="P4" t="n">
-        <v>385.5638192078775</v>
+        <v>385.2066011110837</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -21858,28 +22268,28 @@
         <v>0.0823</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6668382977618567</v>
+        <v>-0.6583375449898502</v>
       </c>
       <c r="J5" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K5" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06061053680162787</v>
+        <v>0.06192517010734322</v>
       </c>
       <c r="M5" t="n">
-        <v>14.94840633745244</v>
+        <v>14.73240698657793</v>
       </c>
       <c r="N5" t="n">
-        <v>383.5749442922427</v>
+        <v>375.7631185549533</v>
       </c>
       <c r="O5" t="n">
-        <v>19.58506942270675</v>
+        <v>19.38461035344671</v>
       </c>
       <c r="P5" t="n">
-        <v>386.6384772056817</v>
+        <v>386.5588118629314</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -21929,28 +22339,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4294015354265008</v>
+        <v>-0.4392932851743794</v>
       </c>
       <c r="J6" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02903042836663428</v>
+        <v>0.03172413975645272</v>
       </c>
       <c r="M6" t="n">
-        <v>14.00886723723076</v>
+        <v>13.83009568167092</v>
       </c>
       <c r="N6" t="n">
-        <v>324.8486953558772</v>
+        <v>318.8329822098866</v>
       </c>
       <c r="O6" t="n">
-        <v>18.02355945300143</v>
+        <v>17.85589488684021</v>
       </c>
       <c r="P6" t="n">
-        <v>375.5842681723808</v>
+        <v>375.6843581822902</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22000,28 +22410,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4387553307982017</v>
+        <v>-0.4656627097128772</v>
       </c>
       <c r="J7" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K7" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02794966466880722</v>
+        <v>0.0324824731379707</v>
       </c>
       <c r="M7" t="n">
-        <v>14.22670671130994</v>
+        <v>14.07919217414384</v>
       </c>
       <c r="N7" t="n">
-        <v>364.2692419511832</v>
+        <v>359.1440222162312</v>
       </c>
       <c r="O7" t="n">
-        <v>19.08583878039378</v>
+        <v>18.9510955413198</v>
       </c>
       <c r="P7" t="n">
-        <v>363.7397204148273</v>
+        <v>364.0035135389742</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -22071,28 +22481,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.3579795429003779</v>
+        <v>-0.3371904241563176</v>
       </c>
       <c r="J8" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K8" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01588257613796273</v>
+        <v>0.01455437044440622</v>
       </c>
       <c r="M8" t="n">
-        <v>14.77580194856181</v>
+        <v>14.6411871095529</v>
       </c>
       <c r="N8" t="n">
-        <v>434.3835521272638</v>
+        <v>428.0513713721107</v>
       </c>
       <c r="O8" t="n">
-        <v>20.84187016865962</v>
+        <v>20.68940239282205</v>
       </c>
       <c r="P8" t="n">
-        <v>368.9433703960936</v>
+        <v>368.7368405927935</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22148,28 +22558,28 @@
         <v>0.1451</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.638754363812037</v>
+        <v>-0.5769538569134753</v>
       </c>
       <c r="J9" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08122283030082922</v>
+        <v>0.06811658375576324</v>
       </c>
       <c r="M9" t="n">
-        <v>11.25026532676909</v>
+        <v>11.32831073316771</v>
       </c>
       <c r="N9" t="n">
-        <v>249.5560870769437</v>
+        <v>252.2508076352952</v>
       </c>
       <c r="O9" t="n">
-        <v>15.7973443045641</v>
+        <v>15.88240559976023</v>
       </c>
       <c r="P9" t="n">
-        <v>376.9083644767203</v>
+        <v>376.3050000920592</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22219,28 +22629,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.2812239712539506</v>
+        <v>-0.2594182027310563</v>
       </c>
       <c r="J10" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K10" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008354810989040562</v>
+        <v>0.007341314282760192</v>
       </c>
       <c r="M10" t="n">
-        <v>15.93164209960682</v>
+        <v>15.80044938302033</v>
       </c>
       <c r="N10" t="n">
-        <v>508.6331331504373</v>
+        <v>502.0069111929608</v>
       </c>
       <c r="O10" t="n">
-        <v>22.55289633617902</v>
+        <v>22.40551073269611</v>
       </c>
       <c r="P10" t="n">
-        <v>358.2614324245421</v>
+        <v>358.0452535829284</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22296,28 +22706,28 @@
         <v>0.1767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3536677669656622</v>
+        <v>-0.2670277687987433</v>
       </c>
       <c r="J11" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K11" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006470660768303271</v>
+        <v>0.00382676604683585</v>
       </c>
       <c r="M11" t="n">
-        <v>21.89495176602547</v>
+        <v>21.75588027878861</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.432801562304</v>
+        <v>990.765780515093</v>
       </c>
       <c r="O11" t="n">
-        <v>31.66121920524072</v>
+        <v>31.47643214398819</v>
       </c>
       <c r="P11" t="n">
-        <v>358.8726036263974</v>
+        <v>357.9870774703353</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22373,28 +22783,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6186738811423532</v>
+        <v>-0.5577939372015592</v>
       </c>
       <c r="J12" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K12" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04279423063687959</v>
+        <v>0.03586124617826825</v>
       </c>
       <c r="M12" t="n">
-        <v>15.84454088700962</v>
+        <v>15.83684800615199</v>
       </c>
       <c r="N12" t="n">
-        <v>459.4331703483162</v>
+        <v>458.4411103029751</v>
       </c>
       <c r="O12" t="n">
-        <v>21.43439223183891</v>
+        <v>21.41123794419592</v>
       </c>
       <c r="P12" t="n">
-        <v>372.1498364705153</v>
+        <v>371.5385018786629</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22450,28 +22860,28 @@
         <v>0.1671</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.255766264988502</v>
+        <v>-0.2334342745141999</v>
       </c>
       <c r="J13" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K13" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01232100051837837</v>
+        <v>0.01061036062351706</v>
       </c>
       <c r="M13" t="n">
-        <v>12.84436639427229</v>
+        <v>12.7769282407631</v>
       </c>
       <c r="N13" t="n">
-        <v>297.3949704117281</v>
+        <v>294.0391696486543</v>
       </c>
       <c r="O13" t="n">
-        <v>17.24514338623278</v>
+        <v>17.14757037159067</v>
       </c>
       <c r="P13" t="n">
-        <v>372.1491485234038</v>
+        <v>371.9400878930003</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -22527,28 +22937,28 @@
         <v>0.1678</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3029613813937504</v>
+        <v>-0.2343118394813722</v>
       </c>
       <c r="J14" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K14" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01116476961038315</v>
+        <v>0.006805078973497247</v>
       </c>
       <c r="M14" t="n">
-        <v>16.467699436094</v>
+        <v>16.5054881707266</v>
       </c>
       <c r="N14" t="n">
-        <v>461.8500303290967</v>
+        <v>465.0476296873382</v>
       </c>
       <c r="O14" t="n">
-        <v>21.4906963667792</v>
+        <v>21.56496301149942</v>
       </c>
       <c r="P14" t="n">
-        <v>367.8623582439674</v>
+        <v>367.2141833871377</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -22604,28 +23014,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2458426944034996</v>
+        <v>-0.1860897590698243</v>
       </c>
       <c r="J15" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K15" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008092095976693803</v>
+        <v>0.004696389494749487</v>
       </c>
       <c r="M15" t="n">
-        <v>15.96086298602078</v>
+        <v>16.04432101581304</v>
       </c>
       <c r="N15" t="n">
-        <v>413.1791240597804</v>
+        <v>416.9597352297998</v>
       </c>
       <c r="O15" t="n">
-        <v>20.32680801453539</v>
+        <v>20.41959194572212</v>
       </c>
       <c r="P15" t="n">
-        <v>371.1010224592837</v>
+        <v>370.5227614826711</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -22675,28 +23085,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.5960944849247075</v>
+        <v>-0.5757427274481633</v>
       </c>
       <c r="J16" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K16" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04026838827254398</v>
+        <v>0.03845629434688025</v>
       </c>
       <c r="M16" t="n">
-        <v>15.20483099564297</v>
+        <v>15.11089153610048</v>
       </c>
       <c r="N16" t="n">
-        <v>450.5614337401996</v>
+        <v>445.820627303448</v>
       </c>
       <c r="O16" t="n">
-        <v>21.22643243082076</v>
+        <v>21.11446488318963</v>
       </c>
       <c r="P16" t="n">
-        <v>376.0151310371083</v>
+        <v>375.8093110415103</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -22746,28 +23156,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.4740768731176502</v>
+        <v>-0.4198785086945613</v>
       </c>
       <c r="J17" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K17" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008137649700635241</v>
+        <v>0.006575517506033468</v>
       </c>
       <c r="M17" t="n">
-        <v>28.16564399999201</v>
+        <v>27.89365802301942</v>
       </c>
       <c r="N17" t="n">
-        <v>1565.014486325851</v>
+        <v>1542.873213541007</v>
       </c>
       <c r="O17" t="n">
-        <v>39.5602639820041</v>
+        <v>39.27942481173837</v>
       </c>
       <c r="P17" t="n">
-        <v>351.4870687616016</v>
+        <v>350.9665233575441</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -22804,7 +23214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R342"/>
+  <dimension ref="A1:R348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47943,10 +48353,26 @@
           <t>-37.77570917903394,174.83356607019</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr"/>
-      <c r="E342" t="inlineStr"/>
-      <c r="F342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-37.77501607960892,174.83336796626267</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-37.774324936821934,174.8331494329177</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-37.77359054348222,174.83315237846202</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-37.77285577316418,174.83326558247302</t>
+        </is>
+      </c>
       <c r="G342" t="inlineStr">
         <is>
           <t>-37.772123738555045,174.8334759090945</t>
@@ -47982,7 +48408,11 @@
           <t>-37.76797371216677,174.83212662209567</t>
         </is>
       </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-37.767282238288864,174.83198894219078</t>
+        </is>
+      </c>
       <c r="O342" t="inlineStr">
         <is>
           <t>-37.76655313907415,174.83206087156705</t>
@@ -47993,8 +48423,520 @@
           <t>-37.76581714658687,174.83218084349656</t>
         </is>
       </c>
-      <c r="Q342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>-37.7651151347313,174.83204639495347</t>
+        </is>
+      </c>
       <c r="R342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-37.775705505032576,174.83359137874405</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-37.77500680494221,174.83343185527133</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-37.77426695267811,174.833553988379</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-37.773553384730185,174.83348544662203</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-37.77283946310801,174.8334645929196</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-37.77212354360555,174.83347801145825</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-37.77142502490795,174.83329941900237</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-37.770729027246844,174.83311735754714</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-37.770028257643936,174.83296958649134</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-37.76932982014421,174.83279447989005</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-37.76863846116545,174.83254214582738</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>-37.76792516990408,174.83254694324583</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-37.767225515553655,174.8324133780482</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-37.76652361808322,174.83227876224097</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-37.76582358565159,174.83213576296467</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-37.76510024552752,174.8321467452042</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-37.775687533529265,174.83371517582884</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-37.774993121067816,174.83352611686652</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-37.774273268650525,174.8335099223283</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-37.77356109747402,174.8334163150568</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-37.77285000773965,174.83333593094287</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-37.77211968950172,174.83351957459143</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-37.77143357087325,174.83322812178022</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-37.770741556713006,174.83302541834448</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-37.770008383048086,174.83313177088507</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-37.76932683056572,174.83282345806293</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-37.76862077864238,174.83272355711782</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-37.767927452013446,174.83252718305909</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-37.76722240413621,174.8324366593194</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-37.76652059471508,174.8323010771592</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-37.765820562909965,174.83215692549518</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-37.76510099964612,174.83214166261072</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-37.77573904094214,174.83336036336996</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-37.77504076741265,174.83319790184868</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-37.774319308605364,174.83318870144362</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-37.77356756862319,174.83335831197505</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-37.772842411279186,174.83342862052248</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-37.7721143311232,174.83357735974027</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-37.77078197068761,174.83272886333344</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-37.7693582653007,174.8325187556332</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-37.76865685991936,174.83235338334686</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr"/>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>-37.76658839968835,174.83180061335918</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-37.77569738750154,174.83364729664794</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-37.774996388046624,174.83350361227915</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-37.774273118651635,174.83351096886034</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-37.773564742724325,174.8333836414876</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-37.77284847256229,174.83335466275878</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-37.77213408435449,174.83336433788887</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-37.77143658475254,174.8332029775186</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-37.77073682906548,174.83306010912503</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-37.77001525678465,174.8330756787496</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-37.76931235567593,174.83296376307658</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-37.76860176708137,174.8329186001986</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-37.76790944351673,174.8326831131013</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-37.76719819077055,174.8326178352929</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr"/>
+      <c r="P346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr"/>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-37.77570623926115,174.83358632097458</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-37.7750014468676,174.83346876452265</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-37.77428017533099,174.83346173481368</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-37.77354409594142,174.83356870423654</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-37.772823388538406,174.83366072594197</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-37.77210080744202,174.8337231987229</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-37.771457541018734,174.83302814181036</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-37.77077715165201,174.83276422539365</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-37.7700525289718,174.8327715204848</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-37.76935129836529,174.83258628804558</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-37.76862841886608,174.8326451737078</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-37.767946576898815,174.83236158451922</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-37.76725834471919,174.8321677306589</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-37.76655544544616,174.83204384839695</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-37.775677078779054,174.8337871931617</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-37.774978453278194,174.83362715556564</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-37.774267535821274,174.83354991983938</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-37.7735604411608,174.83342219779766</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-37.77284643224924,174.83337955804546</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-37.77212505338695,174.8334617297445</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-37.77143623600245,174.83320588708133</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-37.77074125179322,174.83302765580336</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-37.77001241061596,174.83309890452603</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-37.769314723367195,174.83294081317436</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-37.768618722389355,174.83274465275755</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-37.76792331487704,174.83256300541677</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>-37.767223336564676,174.83242968240023</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>-37.76651236956056,174.8323617853297</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>-37.7658222926396,174.8321448154804</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>-37.76509387168402,174.83218970344518</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -21882,7 +21882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21973,35 +21973,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22060,27 +22065,28 @@
       <c r="P2" t="n">
         <v>392.5784146187194</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.8379933507404 -37.77506639016072, 174.82775967346294 -37.77655193158688)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8379933507404</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.77506639016072</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8277596734629</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.77655193158688</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.8328765121017</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.7758091608738</v>
       </c>
     </row>
@@ -22137,27 +22143,28 @@
       <c r="P3" t="n">
         <v>384.9698313682543</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.8378428606043 -37.7743663773198, 174.82760924366448 -37.77585191322875)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8378428606043</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.7743663773198</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8276092436645</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.77585191322875</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8327260521344</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.77510914527427</v>
       </c>
     </row>
@@ -22214,27 +22221,28 @@
       <c r="P4" t="n">
         <v>385.2066011110837</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.83769399125032 -37.77367348951996, 174.82745624604954 -37.77514077400823)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8376939912503</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.77367348951996</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8274562460495</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.77514077400823</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8325751186499</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.77440713176409</v>
       </c>
     </row>
@@ -22291,27 +22299,28 @@
       <c r="P5" t="n">
         <v>386.5588118629314</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.83757242383982 -37.77309734169597, 174.82727026950818 -37.77424662035779)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8375724238398</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.77309734169597</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8272702695082</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.77424662035779</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.832421346674</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.77367198102688</v>
       </c>
     </row>
@@ -22362,27 +22371,28 @@
       <c r="P6" t="n">
         <v>375.6843581822902</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.83750935425206 -37.77250789734976, 174.82716089669623 -37.77335592111143)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8375093542521</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.77250789734976</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8271608966962</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.77335592111143</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8323351254741</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.77293190923059</v>
       </c>
     </row>
@@ -22433,27 +22443,28 @@
       <c r="P7" t="n">
         <v>364.0035135389742</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.8374225543905 -37.771757703552595, 174.82708945239693 -37.77271576916912)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8374225543905</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.77175770355259</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8270894523969</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.77271576916912</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.8322560033937</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.77223673636085</v>
       </c>
     </row>
@@ -22504,27 +22515,28 @@
       <c r="P8" t="n">
         <v>368.7368405927935</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.8372997759037 -37.77094545442886, 174.82701320569294 -37.77217834250199)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.8372997759037</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.77094545442886</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.8270132056929</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.77217834250199</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.8321564907983</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.77156189846542</v>
       </c>
     </row>
@@ -22581,27 +22593,28 @@
       <c r="P9" t="n">
         <v>376.3050000920592</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.83714599025507 -37.77017993129689, 174.82689296120395 -37.77157711668182)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.8371459902551</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.77017993129689</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.826892961204</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.77157711668182</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.8320194757295</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.77087852398935</v>
       </c>
     </row>
@@ -22652,27 +22665,28 @@
       <c r="P10" t="n">
         <v>358.0452535829284</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.83701607701144 -37.76953231812907, 174.82673482004824 -37.770792109350246)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.8370160770114</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.76953231812907</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.8267348200482</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.77079210935025</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.8318754485298</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.77016221373966</v>
       </c>
     </row>
@@ -22729,27 +22743,28 @@
       <c r="P11" t="n">
         <v>357.9870774703353</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.83691883833808 -37.768904250421635, 174.82660252892526 -37.769968454051806)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.8369188383381</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.76890425042163</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.8266025289253</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.76996845405181</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.8317606836317</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.76943635223672</v>
       </c>
     </row>
@@ -22806,27 +22821,28 @@
       <c r="P12" t="n">
         <v>371.5385018786629</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.83682419790765 -37.76822100443659, 174.82649871917567 -37.76922736219886)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.8368241979076</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.76822100443659</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.8264987191757</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.76922736219886</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.8316614585416</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.76872418331773</v>
       </c>
     </row>
@@ -22883,27 +22899,28 @@
       <c r="P13" t="n">
         <v>371.9400878930003</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.8367140833271 -37.76744382888919, 174.82641957708378 -37.76863265621981)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.8367140833271</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.76744382888919</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.8264195770838</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.76863265621981</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.8315668302054</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.7680382425545</v>
       </c>
     </row>
@@ -22960,27 +22977,28 @@
       <c r="P14" t="n">
         <v>367.2141833871377</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.83656218623003 -37.76667097311985, 174.82630382084392 -37.76804185796955)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.83656218623</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.76667097311985</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.8263038208439</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.76804185796955</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.831433003537</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.7673564155447</v>
       </c>
     </row>
@@ -23037,27 +23055,28 @@
       <c r="P15" t="n">
         <v>370.5227614826711</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.83642266855844 -37.765962098754606, 174.8261682945463 -37.76735133590104)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.8364226685584</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.76596209875461</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.8261682945463</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.76735133590104</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.8312954815524</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.76665671732782</v>
       </c>
     </row>
@@ -23108,27 +23127,28 @@
       <c r="P16" t="n">
         <v>375.8093110415103</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.83627445212662 -37.76523236100811, 174.82603631000183 -37.76669463074071)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.8362744521266</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.76523236100811</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.8260363100018</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.76669463074071</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.8311553810642</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.76596349587441</v>
       </c>
     </row>
@@ -23179,27 +23199,28 @@
       <c r="P17" t="n">
         <v>350.9665233575441</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.8361156008249 -37.76451130409338, 174.82589021373505 -37.766028367907346)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.8361156008249</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.76451130409338</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.8258902137351</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.76602836790735</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.83100290728</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.76526983600036</v>
       </c>
     </row>

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R348"/>
+  <dimension ref="A1:R352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18200,6 +18200,246 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>406.6982352941176</v>
+      </c>
+      <c r="C349" t="n">
+        <v>392.6938461538462</v>
+      </c>
+      <c r="D349" t="n">
+        <v>386.7668421052632</v>
+      </c>
+      <c r="E349" t="n">
+        <v>372.89</v>
+      </c>
+      <c r="F349" t="n">
+        <v>374.0848275862069</v>
+      </c>
+      <c r="G349" t="n">
+        <v>375.0882352941176</v>
+      </c>
+      <c r="H349" t="n">
+        <v>387.3092307692308</v>
+      </c>
+      <c r="I349" t="n">
+        <v>380.9890909090909</v>
+      </c>
+      <c r="J349" t="n">
+        <v>371.9304081632653</v>
+      </c>
+      <c r="K349" t="n">
+        <v>385.6011111111111</v>
+      </c>
+      <c r="L349" t="n">
+        <v>392.91</v>
+      </c>
+      <c r="M349" t="n">
+        <v>396.7169230769231</v>
+      </c>
+      <c r="N349" t="n">
+        <v>398.9</v>
+      </c>
+      <c r="O349" t="n">
+        <v>400.8111111111111</v>
+      </c>
+      <c r="P349" t="n">
+        <v>408.0811111111111</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>391.1711111111111</v>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>387.7247058823529</v>
+      </c>
+      <c r="C350" t="n">
+        <v>388.5476923076923</v>
+      </c>
+      <c r="D350" t="n">
+        <v>378.068947368421</v>
+      </c>
+      <c r="E350" t="n">
+        <v>363.4</v>
+      </c>
+      <c r="F350" t="n">
+        <v>371.4889655172414</v>
+      </c>
+      <c r="G350" t="n">
+        <v>354.1847058823529</v>
+      </c>
+      <c r="H350" t="n">
+        <v>361.4384615384615</v>
+      </c>
+      <c r="I350" t="n">
+        <v>374.4536363636364</v>
+      </c>
+      <c r="J350" t="n">
+        <v>366.5944897959184</v>
+      </c>
+      <c r="K350" t="n">
+        <v>375.0411111111111</v>
+      </c>
+      <c r="L350" t="n">
+        <v>375.8575</v>
+      </c>
+      <c r="M350" t="n">
+        <v>386.1038461538461</v>
+      </c>
+      <c r="N350" t="n">
+        <v>386.96</v>
+      </c>
+      <c r="O350" t="n">
+        <v>397.4611111111111</v>
+      </c>
+      <c r="P350" t="n">
+        <v>399.9311111111111</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>390.7711111111111</v>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>378.8011764705882</v>
+      </c>
+      <c r="C351" t="n">
+        <v>373.2730769230769</v>
+      </c>
+      <c r="D351" t="n">
+        <v>369.028947368421</v>
+      </c>
+      <c r="E351" t="n">
+        <v>363.5333333333333</v>
+      </c>
+      <c r="F351" t="n">
+        <v>364.4824137931034</v>
+      </c>
+      <c r="G351" t="n">
+        <v>351.0011764705882</v>
+      </c>
+      <c r="H351" t="n">
+        <v>358.8120512820512</v>
+      </c>
+      <c r="I351" t="n">
+        <v>362.49</v>
+      </c>
+      <c r="J351" t="n">
+        <v>361.7595918367346</v>
+      </c>
+      <c r="K351" t="n">
+        <v>379.0581481481482</v>
+      </c>
+      <c r="L351" t="n">
+        <v>380.165</v>
+      </c>
+      <c r="M351" t="n">
+        <v>388.5515384615384</v>
+      </c>
+      <c r="N351" t="n">
+        <v>393.1566666666667</v>
+      </c>
+      <c r="O351" t="n">
+        <v>367.2781481481481</v>
+      </c>
+      <c r="P351" t="n">
+        <v>368.8381481481482</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>373.8881481481482</v>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>390.6594117647059</v>
+      </c>
+      <c r="C352" t="n">
+        <v>389.4976923076923</v>
+      </c>
+      <c r="D352" t="n">
+        <v>375.0647368421053</v>
+      </c>
+      <c r="E352" t="n">
+        <v>377.05</v>
+      </c>
+      <c r="F352" t="n">
+        <v>375.4068965517241</v>
+      </c>
+      <c r="G352" t="n">
+        <v>359.1294117647059</v>
+      </c>
+      <c r="H352" t="n">
+        <v>364.5584615384615</v>
+      </c>
+      <c r="I352" t="n">
+        <v>367.67</v>
+      </c>
+      <c r="J352" t="n">
+        <v>354.4655102040816</v>
+      </c>
+      <c r="K352" t="n">
+        <v>371.4977777777778</v>
+      </c>
+      <c r="L352" t="n">
+        <v>370.99</v>
+      </c>
+      <c r="M352" t="n">
+        <v>377.8838461538462</v>
+      </c>
+      <c r="N352" t="n">
+        <v>365.68</v>
+      </c>
+      <c r="O352" t="n">
+        <v>360.8577777777778</v>
+      </c>
+      <c r="P352" t="n">
+        <v>372.2277777777778</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>374.9677777777778</v>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18211,7 +18451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21869,6 +22109,46 @@
       </c>
       <c r="B365" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
@@ -22042,28 +22322,28 @@
         <v>0.1151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.432380024328321</v>
+        <v>-0.4060222829657797</v>
       </c>
       <c r="J2" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K2" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02661815464819417</v>
+        <v>0.0240420570139579</v>
       </c>
       <c r="M2" t="n">
-        <v>15.26036373760784</v>
+        <v>15.18579132570257</v>
       </c>
       <c r="N2" t="n">
-        <v>389.4550776808549</v>
+        <v>386.2481222125069</v>
       </c>
       <c r="O2" t="n">
-        <v>19.73461622836519</v>
+        <v>19.65319623401005</v>
       </c>
       <c r="P2" t="n">
-        <v>392.5784146187194</v>
+        <v>392.3193576756586</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22120,28 +22400,28 @@
         <v>0.0809</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.207351204932897</v>
+        <v>-0.1884334500820095</v>
       </c>
       <c r="J3" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K3" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004494261109749043</v>
+        <v>0.003823566410897539</v>
       </c>
       <c r="M3" t="n">
-        <v>17.09380548708271</v>
+        <v>16.96117056008411</v>
       </c>
       <c r="N3" t="n">
-        <v>540.07021753964</v>
+        <v>532.7107771881016</v>
       </c>
       <c r="O3" t="n">
-        <v>23.23941086903108</v>
+        <v>23.08052809595356</v>
       </c>
       <c r="P3" t="n">
-        <v>384.9698313682543</v>
+        <v>384.785675287234</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22198,28 +22478,28 @@
         <v>0.121</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3502234951134265</v>
+        <v>-0.3473140348964699</v>
       </c>
       <c r="J4" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K4" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02121003864714166</v>
+        <v>0.02146442982337815</v>
       </c>
       <c r="M4" t="n">
-        <v>13.84160535472027</v>
+        <v>13.7023449998835</v>
       </c>
       <c r="N4" t="n">
-        <v>317.4902569103061</v>
+        <v>313.0244075269977</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8182562814184</v>
+        <v>17.69249579700382</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2066011110837</v>
+        <v>385.1782884616735</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22276,28 +22556,28 @@
         <v>0.0823</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6583375449898502</v>
+        <v>-0.6596033131038022</v>
       </c>
       <c r="J5" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K5" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06192517010734322</v>
+        <v>0.06390537866507118</v>
       </c>
       <c r="M5" t="n">
-        <v>14.73240698657793</v>
+        <v>14.58511754756808</v>
       </c>
       <c r="N5" t="n">
-        <v>375.7631185549533</v>
+        <v>370.2074669323105</v>
       </c>
       <c r="O5" t="n">
-        <v>19.38461035344671</v>
+        <v>19.24077615202439</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5588118629314</v>
+        <v>386.5710238346582</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22348,28 +22628,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4392932851743794</v>
+        <v>-0.4189800302552555</v>
       </c>
       <c r="J6" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K6" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03172413975645272</v>
+        <v>0.0297187290624269</v>
       </c>
       <c r="M6" t="n">
-        <v>13.83009568167092</v>
+        <v>13.72218582685693</v>
       </c>
       <c r="N6" t="n">
-        <v>318.8329822098866</v>
+        <v>314.8042499966307</v>
       </c>
       <c r="O6" t="n">
-        <v>17.85589488684021</v>
+        <v>17.74272386068809</v>
       </c>
       <c r="P6" t="n">
-        <v>375.6843581822902</v>
+        <v>375.4788465976597</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22420,28 +22700,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4656627097128772</v>
+        <v>-0.4446920378430163</v>
       </c>
       <c r="J7" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K7" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0324824731379707</v>
+        <v>0.0303672191845098</v>
       </c>
       <c r="M7" t="n">
-        <v>14.07919217414384</v>
+        <v>14.01318949645123</v>
       </c>
       <c r="N7" t="n">
-        <v>359.1440222162312</v>
+        <v>355.9656270949061</v>
       </c>
       <c r="O7" t="n">
-        <v>18.9510955413198</v>
+        <v>18.86705136196184</v>
       </c>
       <c r="P7" t="n">
-        <v>364.0035135389742</v>
+        <v>363.7963364358026</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22492,28 +22772,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.3371904241563176</v>
+        <v>-0.3161681384216475</v>
       </c>
       <c r="J8" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K8" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01455437044440622</v>
+        <v>0.01308611170388796</v>
       </c>
       <c r="M8" t="n">
-        <v>14.6411871095529</v>
+        <v>14.55193975187184</v>
       </c>
       <c r="N8" t="n">
-        <v>428.0513713721107</v>
+        <v>424.486999984575</v>
       </c>
       <c r="O8" t="n">
-        <v>20.68940239282205</v>
+        <v>20.60308229330202</v>
       </c>
       <c r="P8" t="n">
-        <v>368.7368405927935</v>
+        <v>368.5269101057067</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22570,28 +22850,28 @@
         <v>0.1451</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5769538569134753</v>
+        <v>-0.5488601235805545</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K9" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06811658375576324</v>
+        <v>0.06332921313539985</v>
       </c>
       <c r="M9" t="n">
-        <v>11.32831073316771</v>
+        <v>11.30836135910076</v>
       </c>
       <c r="N9" t="n">
-        <v>252.2508076352952</v>
+        <v>250.5631213977215</v>
       </c>
       <c r="O9" t="n">
-        <v>15.88240559976023</v>
+        <v>15.82918574651651</v>
       </c>
       <c r="P9" t="n">
-        <v>376.3050000920592</v>
+        <v>376.0285579156483</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22642,28 +22922,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.2594182027310563</v>
+        <v>-0.2250190625949962</v>
       </c>
       <c r="J10" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K10" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007341314282760192</v>
+        <v>0.005664516206241643</v>
       </c>
       <c r="M10" t="n">
-        <v>15.80044938302033</v>
+        <v>15.7593716247926</v>
       </c>
       <c r="N10" t="n">
-        <v>502.0069111929608</v>
+        <v>497.1245649698369</v>
       </c>
       <c r="O10" t="n">
-        <v>22.40551073269611</v>
+        <v>22.29629038584304</v>
       </c>
       <c r="P10" t="n">
-        <v>358.0452535829284</v>
+        <v>357.70119618877</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22720,28 +23000,28 @@
         <v>0.1767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2670277687987433</v>
+        <v>-0.1865536244528609</v>
       </c>
       <c r="J11" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K11" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00382676604683585</v>
+        <v>0.001906836792735289</v>
       </c>
       <c r="M11" t="n">
-        <v>21.75588027878861</v>
+        <v>21.80085669218392</v>
       </c>
       <c r="N11" t="n">
-        <v>990.765780515093</v>
+        <v>986.0328972584415</v>
       </c>
       <c r="O11" t="n">
-        <v>31.47643214398819</v>
+        <v>31.40116076291514</v>
       </c>
       <c r="P11" t="n">
-        <v>357.9870774703353</v>
+        <v>357.1561147531152</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22798,28 +23078,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5577939372015592</v>
+        <v>-0.4921344081610656</v>
       </c>
       <c r="J12" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K12" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03586124617826825</v>
+        <v>0.02840238767785153</v>
       </c>
       <c r="M12" t="n">
-        <v>15.83684800615199</v>
+        <v>15.91274439461516</v>
       </c>
       <c r="N12" t="n">
-        <v>458.4411103029751</v>
+        <v>460.0999363877735</v>
       </c>
       <c r="O12" t="n">
-        <v>21.41123794419592</v>
+        <v>21.449940242056</v>
       </c>
       <c r="P12" t="n">
-        <v>371.5385018786629</v>
+        <v>370.8717757636491</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22876,28 +23156,28 @@
         <v>0.1671</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2334342745141999</v>
+        <v>-0.1746822559429135</v>
       </c>
       <c r="J13" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K13" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01061036062351706</v>
+        <v>0.006004281391572164</v>
       </c>
       <c r="M13" t="n">
-        <v>12.7769282407631</v>
+        <v>12.92005090591513</v>
       </c>
       <c r="N13" t="n">
-        <v>294.0391696486543</v>
+        <v>296.8530008096575</v>
       </c>
       <c r="O13" t="n">
-        <v>17.14757037159067</v>
+        <v>17.22942253268105</v>
       </c>
       <c r="P13" t="n">
-        <v>371.9400878930003</v>
+        <v>371.3850401523796</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22954,28 +23234,28 @@
         <v>0.1678</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2343118394813722</v>
+        <v>-0.1677230290610082</v>
       </c>
       <c r="J14" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K14" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006805078973497247</v>
+        <v>0.003513387936727841</v>
       </c>
       <c r="M14" t="n">
-        <v>16.5054881707266</v>
+        <v>16.59734462101926</v>
       </c>
       <c r="N14" t="n">
-        <v>465.0476296873382</v>
+        <v>469.4028685918448</v>
       </c>
       <c r="O14" t="n">
-        <v>21.56496301149942</v>
+        <v>21.66570720267041</v>
       </c>
       <c r="P14" t="n">
-        <v>367.2141833871377</v>
+        <v>366.5759780537692</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23032,28 +23312,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1860897590698243</v>
+        <v>-0.1413056488285144</v>
       </c>
       <c r="J15" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K15" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004696389494749487</v>
+        <v>0.002737626974849472</v>
       </c>
       <c r="M15" t="n">
-        <v>16.04432101581304</v>
+        <v>16.12535543338818</v>
       </c>
       <c r="N15" t="n">
-        <v>416.9597352297998</v>
+        <v>419.1334777134934</v>
       </c>
       <c r="O15" t="n">
-        <v>20.41959194572212</v>
+        <v>20.47274963734704</v>
       </c>
       <c r="P15" t="n">
-        <v>370.5227614826711</v>
+        <v>370.0858350111026</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23104,28 +23384,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.5757427274481633</v>
+        <v>-0.4966757236252276</v>
       </c>
       <c r="J16" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K16" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03845629434688025</v>
+        <v>0.02879375747995072</v>
       </c>
       <c r="M16" t="n">
-        <v>15.11089153610048</v>
+        <v>15.24638204264788</v>
       </c>
       <c r="N16" t="n">
-        <v>445.820627303448</v>
+        <v>454.0833638407586</v>
       </c>
       <c r="O16" t="n">
-        <v>21.11446488318963</v>
+        <v>21.30923189232213</v>
       </c>
       <c r="P16" t="n">
-        <v>375.8093110415103</v>
+        <v>375.001586476514</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23176,28 +23456,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.4198785086945613</v>
+        <v>-0.2924052461361376</v>
       </c>
       <c r="J17" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K17" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006575517506033468</v>
+        <v>0.003234725095540569</v>
       </c>
       <c r="M17" t="n">
-        <v>27.89365802301942</v>
+        <v>27.92962853153911</v>
       </c>
       <c r="N17" t="n">
-        <v>1542.873213541007</v>
+        <v>1547.181623007522</v>
       </c>
       <c r="O17" t="n">
-        <v>39.27942481173837</v>
+        <v>39.33422966078682</v>
       </c>
       <c r="P17" t="n">
-        <v>350.9665233575441</v>
+        <v>349.722105023662</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23235,7 +23515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R348"/>
+  <dimension ref="A1:R352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48963,6 +49243,374 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-37.77572573914932,174.83345199445964</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-37.77500302049926,174.83345792452437</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-37.77429281983151,174.83337351447892</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-37.77356505624888,174.8333808312607</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-37.77285414195022,174.83328548624772</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-37.77214991249274,174.8331936417679</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-37.771466582168905,174.83295271184275</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-37.7707608580504,174.83288378715685</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-37.77004367165161,174.8328438009147</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-37.76935210133462,174.83257850466376</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-37.768652541647334,174.83239768705403</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-37.76795853108234,174.83225807458342</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-37.76726774860607,174.83209736442794</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-37.766569757474464,174.83193821189283</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-37.76588355866862,174.83171587976776</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>-37.765158907336144,174.83175137281458</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-37.77569498265528,174.83366386248045</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-37.77499629951402,174.83350422213633</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-37.77427889360223,174.83347067737296</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-37.77355315481038,174.83348750745435</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-37.772851739796515,174.83331479681235</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-37.772128058798515,174.83342931885213</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-37.771431777790184,174.83324308113268</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-37.77075089416835,174.8329569012419</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-37.77003633652732,174.83290365913288</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-37.769339838685816,174.83269736901514</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-37.76863381613268,174.83258980115488</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-37.76794476380652,174.83237728381093</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-37.76724988816609,174.83223100801646</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-37.76656467933142,174.8319756935463</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-37.76587055496874,174.83180692223777</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-37.76515824519787,174.83175583558713</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-37.77568051729437,174.8337635070548</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-37.774971538949956,174.83367478452163</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-37.77426441954304,174.83357166183217</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-37.77355332202478,174.83348600866722</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-37.77284525605139,174.83339390962854</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-37.77212473052146,174.83346521157745</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-37.77142824439686,174.83327255951573</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-37.770732654423725,174.8330907419651</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-37.77002969011452,174.83295789690357</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-37.76934450342659,174.83265215287432</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-37.76863854626931,174.83254127270962</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>-37.76794793896184,174.83234979060938</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>-37.76725915746398,174.83216164916678</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>-37.76651892554458,174.8323133969823</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>-37.765820944076985,174.8321542569064</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>-37.76513029790522,174.83194419756862</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-37.77569973990046,174.8336310920835</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-37.77499783948163,174.8334936140572</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-37.774274083531985,174.83350423695464</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-37.77357027328761,174.83333406908162</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-37.772855365361,174.83327055841679</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-37.772133228307055,174.83337356972274</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-37.77143597521599,174.83320806277806</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-37.77074055186353,174.8330327917884</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-37.77001966307686,174.83303972171814</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-37.76933572401408,174.8327372530979</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-37.76862847102696,174.83264463857125</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>-37.76793410074624,174.832469613255</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>-37.76721805612216,174.83246919339996</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>-37.76650919290216,174.83238523152568</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>-37.76582635250584,174.83211639190384</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>-37.765132085084154,174.8319321522245</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R352"/>
+  <dimension ref="A1:R353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18440,6 +18440,64 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>370.14</v>
+      </c>
+      <c r="C353" t="n">
+        <v>373.4438461538462</v>
+      </c>
+      <c r="D353" t="n">
+        <v>368.3847368421053</v>
+      </c>
+      <c r="E353" t="n">
+        <v>371.2433333333333</v>
+      </c>
+      <c r="F353" t="n">
+        <v>367.7782758620689</v>
+      </c>
+      <c r="G353" t="n">
+        <v>353.56</v>
+      </c>
+      <c r="H353" t="n">
+        <v>358.3258974358974</v>
+      </c>
+      <c r="I353" t="n">
+        <v>360.7045454545454</v>
+      </c>
+      <c r="J353" t="n">
+        <v>338.1575510204082</v>
+      </c>
+      <c r="K353" t="n">
+        <v>338.0925925925926</v>
+      </c>
+      <c r="L353" t="n">
+        <v>358.005</v>
+      </c>
+      <c r="M353" t="n">
+        <v>365.3169230769231</v>
+      </c>
+      <c r="N353" t="n">
+        <v>356.8366666666667</v>
+      </c>
+      <c r="O353" t="n">
+        <v>356.2725925925926</v>
+      </c>
+      <c r="P353" t="n">
+        <v>371.3725925925926</v>
+      </c>
+      <c r="Q353" t="inlineStr"/>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18451,7 +18509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B369"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22149,6 +22207,16 @@
       </c>
       <c r="B369" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -22322,28 +22390,28 @@
         <v>0.1151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4060222829657797</v>
+        <v>-0.4141719480893934</v>
       </c>
       <c r="J2" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0240420570139579</v>
+        <v>0.0251331063860778</v>
       </c>
       <c r="M2" t="n">
-        <v>15.18579132570257</v>
+        <v>15.17249694955413</v>
       </c>
       <c r="N2" t="n">
-        <v>386.2481222125069</v>
+        <v>385.2576631711347</v>
       </c>
       <c r="O2" t="n">
-        <v>19.65319623401005</v>
+        <v>19.62798163773175</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3193576756586</v>
+        <v>392.4000881737317</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22400,28 +22468,28 @@
         <v>0.0809</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1884334500820095</v>
+        <v>-0.1932566580444408</v>
       </c>
       <c r="J3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K3" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003823566410897539</v>
+        <v>0.004051209476194861</v>
       </c>
       <c r="M3" t="n">
-        <v>16.96117056008411</v>
+        <v>16.91959560625185</v>
       </c>
       <c r="N3" t="n">
-        <v>532.7107771881016</v>
+        <v>530.6895133449941</v>
       </c>
       <c r="O3" t="n">
-        <v>23.08052809595356</v>
+        <v>23.03669927192249</v>
       </c>
       <c r="P3" t="n">
-        <v>384.785675287234</v>
+        <v>384.8329416958754</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22478,28 +22546,28 @@
         <v>0.121</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3473140348964699</v>
+        <v>-0.3530364063218683</v>
       </c>
       <c r="J4" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K4" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02146442982337815</v>
+        <v>0.02231005997829449</v>
       </c>
       <c r="M4" t="n">
-        <v>13.7023449998835</v>
+        <v>13.67618596834565</v>
       </c>
       <c r="N4" t="n">
-        <v>313.0244075269977</v>
+        <v>312.0071833604644</v>
       </c>
       <c r="O4" t="n">
-        <v>17.69249579700382</v>
+        <v>17.66372507033735</v>
       </c>
       <c r="P4" t="n">
-        <v>385.1782884616735</v>
+        <v>385.2350242449259</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22556,28 +22624,28 @@
         <v>0.0823</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6596033131038022</v>
+        <v>-0.6583817920315462</v>
       </c>
       <c r="J5" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K5" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06390537866507118</v>
+        <v>0.06414118477094932</v>
       </c>
       <c r="M5" t="n">
-        <v>14.58511754756808</v>
+        <v>14.53314553565983</v>
       </c>
       <c r="N5" t="n">
-        <v>370.2074669323105</v>
+        <v>368.7138521557569</v>
       </c>
       <c r="O5" t="n">
-        <v>19.24077615202439</v>
+        <v>19.20192313690889</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5710238346582</v>
+        <v>386.5591123277208</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22628,28 +22696,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4189800302552555</v>
+        <v>-0.4167201996160859</v>
       </c>
       <c r="J6" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K6" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0297187290624269</v>
+        <v>0.0296196714090704</v>
       </c>
       <c r="M6" t="n">
-        <v>13.72218582685693</v>
+        <v>13.68068432041335</v>
       </c>
       <c r="N6" t="n">
-        <v>314.8042499966307</v>
+        <v>313.6022811888839</v>
       </c>
       <c r="O6" t="n">
-        <v>17.74272386068809</v>
+        <v>17.70881930533156</v>
       </c>
       <c r="P6" t="n">
-        <v>375.4788465976597</v>
+        <v>375.4558567272869</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22700,28 +22768,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4446920378430163</v>
+        <v>-0.4438646346075384</v>
       </c>
       <c r="J7" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K7" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0303672191845098</v>
+        <v>0.03046451219103552</v>
       </c>
       <c r="M7" t="n">
-        <v>14.01318949645123</v>
+        <v>13.96697594233238</v>
       </c>
       <c r="N7" t="n">
-        <v>355.9656270949061</v>
+        <v>354.6624117204769</v>
       </c>
       <c r="O7" t="n">
-        <v>18.86705136196184</v>
+        <v>18.83248288783178</v>
       </c>
       <c r="P7" t="n">
-        <v>363.7963364358026</v>
+        <v>363.7880994602294</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22772,28 +22840,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.3161681384216475</v>
+        <v>-0.3175304435666055</v>
       </c>
       <c r="J8" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K8" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01308611170388796</v>
+        <v>0.01328575031787027</v>
       </c>
       <c r="M8" t="n">
-        <v>14.55193975187184</v>
+        <v>14.50551069550028</v>
       </c>
       <c r="N8" t="n">
-        <v>424.486999984575</v>
+        <v>422.9302331543134</v>
       </c>
       <c r="O8" t="n">
-        <v>20.60308229330202</v>
+        <v>20.56526764120305</v>
       </c>
       <c r="P8" t="n">
-        <v>368.5269101057067</v>
+        <v>368.5406327035823</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22850,28 +22918,28 @@
         <v>0.1451</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5488601235805545</v>
+        <v>-0.5496936404299884</v>
       </c>
       <c r="J9" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K9" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06332921313539985</v>
+        <v>0.06395594631963064</v>
       </c>
       <c r="M9" t="n">
-        <v>11.30836135910076</v>
+        <v>11.26957869782576</v>
       </c>
       <c r="N9" t="n">
-        <v>250.5631213977215</v>
+        <v>249.6119804134084</v>
       </c>
       <c r="O9" t="n">
-        <v>15.82918574651651</v>
+        <v>15.79911327933971</v>
       </c>
       <c r="P9" t="n">
-        <v>376.0285579156483</v>
+        <v>376.0368157123571</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22922,28 +22990,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.2250190625949962</v>
+        <v>-0.2346398744517381</v>
       </c>
       <c r="J10" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K10" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005664516206241643</v>
+        <v>0.006191514013439869</v>
       </c>
       <c r="M10" t="n">
-        <v>15.7593716247926</v>
+        <v>15.74685038706315</v>
       </c>
       <c r="N10" t="n">
-        <v>497.1245649698369</v>
+        <v>495.9309552871602</v>
       </c>
       <c r="O10" t="n">
-        <v>22.29629038584304</v>
+        <v>22.26950729780882</v>
       </c>
       <c r="P10" t="n">
-        <v>357.70119618877</v>
+        <v>357.7980869931948</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23000,28 +23068,28 @@
         <v>0.1767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1865536244528609</v>
+        <v>-0.1973035314682036</v>
       </c>
       <c r="J11" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K11" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001906836792735289</v>
+        <v>0.002146727434574336</v>
       </c>
       <c r="M11" t="n">
-        <v>21.80085669218392</v>
+        <v>21.77211522265061</v>
       </c>
       <c r="N11" t="n">
-        <v>986.0328972584415</v>
+        <v>982.7882364371196</v>
       </c>
       <c r="O11" t="n">
-        <v>31.40116076291514</v>
+        <v>31.34945352692962</v>
       </c>
       <c r="P11" t="n">
-        <v>357.1561147531152</v>
+        <v>357.2677844834181</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23078,28 +23146,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4921344081610656</v>
+        <v>-0.4922641188260411</v>
       </c>
       <c r="J12" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K12" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02840238767785153</v>
+        <v>0.02861779227868655</v>
       </c>
       <c r="M12" t="n">
-        <v>15.91274439461516</v>
+        <v>15.84933437449225</v>
       </c>
       <c r="N12" t="n">
-        <v>460.0999363877735</v>
+        <v>458.2448235229841</v>
       </c>
       <c r="O12" t="n">
-        <v>21.449940242056</v>
+        <v>21.40665372081737</v>
       </c>
       <c r="P12" t="n">
-        <v>370.8717757636491</v>
+        <v>370.8731015957667</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23156,28 +23224,28 @@
         <v>0.1671</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1746822559429135</v>
+        <v>-0.175757620846161</v>
       </c>
       <c r="J13" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K13" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006004281391572164</v>
+        <v>0.006123231969943577</v>
       </c>
       <c r="M13" t="n">
-        <v>12.92005090591513</v>
+        <v>12.87700481819449</v>
       </c>
       <c r="N13" t="n">
-        <v>296.8530008096575</v>
+        <v>295.750260951199</v>
       </c>
       <c r="O13" t="n">
-        <v>17.22942253268105</v>
+        <v>17.19739110886297</v>
       </c>
       <c r="P13" t="n">
-        <v>371.3850401523796</v>
+        <v>371.3952634214972</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23234,28 +23302,28 @@
         <v>0.1678</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1677230290610082</v>
+        <v>-0.1713363059584119</v>
       </c>
       <c r="J14" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K14" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003513387936727841</v>
+        <v>0.003690885475256644</v>
       </c>
       <c r="M14" t="n">
-        <v>16.59734462101926</v>
+        <v>16.55677303436273</v>
       </c>
       <c r="N14" t="n">
-        <v>469.4028685918448</v>
+        <v>467.7534638443518</v>
       </c>
       <c r="O14" t="n">
-        <v>21.66570720267041</v>
+        <v>21.62760883325643</v>
       </c>
       <c r="P14" t="n">
-        <v>366.5759780537692</v>
+        <v>366.6108487558917</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23312,28 +23380,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1413056488285144</v>
+        <v>-0.1485095307675658</v>
       </c>
       <c r="J15" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K15" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002737626974849472</v>
+        <v>0.00304244537382703</v>
       </c>
       <c r="M15" t="n">
-        <v>16.12535543338818</v>
+        <v>16.09376378894182</v>
       </c>
       <c r="N15" t="n">
-        <v>419.1334777134934</v>
+        <v>417.8810521241761</v>
       </c>
       <c r="O15" t="n">
-        <v>20.47274963734704</v>
+        <v>20.44213912789403</v>
       </c>
       <c r="P15" t="n">
-        <v>370.0858350111026</v>
+        <v>370.1567032755636</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23384,28 +23452,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.4966757236252276</v>
+        <v>-0.4897560808776649</v>
       </c>
       <c r="J16" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K16" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02879375747995072</v>
+        <v>0.02820714630765575</v>
       </c>
       <c r="M16" t="n">
-        <v>15.24638204264788</v>
+        <v>15.21734534309769</v>
       </c>
       <c r="N16" t="n">
-        <v>454.0833638407586</v>
+        <v>452.5570907417017</v>
       </c>
       <c r="O16" t="n">
-        <v>21.30923189232213</v>
+        <v>21.27338926315461</v>
       </c>
       <c r="P16" t="n">
-        <v>375.001586476514</v>
+        <v>374.9304067702572</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23459,7 +23527,7 @@
         <v>-0.2924052461361376</v>
       </c>
       <c r="J17" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K17" t="n">
         <v>229</v>
@@ -23515,7 +23583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R352"/>
+  <dimension ref="A1:R353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49611,6 +49679,94 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-37.77566647713728,174.8338602220252</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-37.774971815772844,174.83367287764568</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-37.77426338808609,174.83357885820794</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-37.77356299116596,174.8333993412879</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-37.7728483059933,174.83335669518604</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-37.77212740568957,174.83343636210338</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-37.77142759035783,174.83327801602368</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-37.77072993230911,174.83311071636473</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>-37.769997244626616,174.83322266388402</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>-37.769296931811354,174.83311326466077</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>-37.768614211797164,174.83279092796803</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>-37.76791779867837,174.83261076855345</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>-37.76720482753391,174.8325681760758</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>-37.76650224219126,174.83243653302142</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>-37.76582498798968,174.83212594503934</t>
+        </is>
+      </c>
+      <c r="Q353" t="inlineStr"/>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R353"/>
+  <dimension ref="A1:R354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18491,10 +18491,64 @@
       <c r="P353" t="n">
         <v>371.3725925925926</v>
       </c>
-      <c r="Q353" t="inlineStr"/>
+      <c r="Q353" t="n">
+        <v>324.5025925925926</v>
+      </c>
       <c r="R353" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>392.2394117647058</v>
+      </c>
+      <c r="C354" t="n">
+        <v>399.65</v>
+      </c>
+      <c r="D354" t="n">
+        <v>364.8884210526315</v>
+      </c>
+      <c r="E354" t="n">
+        <v>338.2466666666667</v>
+      </c>
+      <c r="F354" t="n">
+        <v>348.0731034482758</v>
+      </c>
+      <c r="G354" t="n">
+        <v>347.5994117647058</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="n">
+        <v>361.0518181818182</v>
+      </c>
+      <c r="J354" t="n">
+        <v>356.8612244897959</v>
+      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>346.0925</v>
+      </c>
+      <c r="M354" t="n">
+        <v>355.7</v>
+      </c>
+      <c r="N354" t="inlineStr"/>
+      <c r="O354" t="inlineStr"/>
+      <c r="P354" t="n">
+        <v>370.822962962963</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>295.312962962963</v>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18509,7 +18563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B370"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22217,6 +22271,16 @@
       </c>
       <c r="B370" t="n">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -22390,28 +22454,28 @@
         <v>0.1151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4141719480893934</v>
+        <v>-0.4068260583443039</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0251331063860778</v>
+        <v>0.02441485396452747</v>
       </c>
       <c r="M2" t="n">
-        <v>15.17249694955413</v>
+        <v>15.15344566710109</v>
       </c>
       <c r="N2" t="n">
-        <v>385.2576631711347</v>
+        <v>384.1752223816171</v>
       </c>
       <c r="O2" t="n">
-        <v>19.62798163773175</v>
+        <v>19.60038832221487</v>
       </c>
       <c r="P2" t="n">
-        <v>392.4000881737317</v>
+        <v>392.3268763153119</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22468,28 +22532,28 @@
         <v>0.0809</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1932566580444408</v>
+        <v>-0.1785361149599439</v>
       </c>
       <c r="J3" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K3" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004051209476194861</v>
+        <v>0.003476416607606669</v>
       </c>
       <c r="M3" t="n">
-        <v>16.91959560625185</v>
+        <v>16.92589963122261</v>
       </c>
       <c r="N3" t="n">
-        <v>530.6895133449941</v>
+        <v>530.105403961909</v>
       </c>
       <c r="O3" t="n">
-        <v>23.03669927192249</v>
+        <v>23.02401798040275</v>
       </c>
       <c r="P3" t="n">
-        <v>384.8329416958754</v>
+        <v>384.6878387052531</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22546,28 +22610,28 @@
         <v>0.121</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3530364063218683</v>
+        <v>-0.3612069617495011</v>
       </c>
       <c r="J4" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K4" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02231005997829449</v>
+        <v>0.02346844986980845</v>
       </c>
       <c r="M4" t="n">
-        <v>13.67618596834565</v>
+        <v>13.66275298420118</v>
       </c>
       <c r="N4" t="n">
-        <v>312.0071833604644</v>
+        <v>311.2526766512871</v>
       </c>
       <c r="O4" t="n">
-        <v>17.66372507033735</v>
+        <v>17.64235462321532</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2350242449259</v>
+        <v>385.3165061498075</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22624,28 +22688,28 @@
         <v>0.0823</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6583817920315462</v>
+        <v>-0.6811315487757903</v>
       </c>
       <c r="J5" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K5" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06414118477094932</v>
+        <v>0.06815883695848812</v>
       </c>
       <c r="M5" t="n">
-        <v>14.53314553565983</v>
+        <v>14.59244306960701</v>
       </c>
       <c r="N5" t="n">
-        <v>368.7138521557569</v>
+        <v>371.1329049209601</v>
       </c>
       <c r="O5" t="n">
-        <v>19.20192313690889</v>
+        <v>19.26481001517949</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5591123277208</v>
+        <v>386.782270284101</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22696,28 +22760,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4167201996160859</v>
+        <v>-0.4288052049696732</v>
       </c>
       <c r="J6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K6" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0296196714090704</v>
+        <v>0.03143341013861456</v>
       </c>
       <c r="M6" t="n">
-        <v>13.68068432041335</v>
+        <v>13.69093359227969</v>
       </c>
       <c r="N6" t="n">
-        <v>313.6022811888839</v>
+        <v>313.4400309399638</v>
       </c>
       <c r="O6" t="n">
-        <v>17.70881930533156</v>
+        <v>17.70423765486568</v>
       </c>
       <c r="P6" t="n">
-        <v>375.4558567272869</v>
+        <v>375.5794938979454</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22768,28 +22832,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4438646346075384</v>
+        <v>-0.4470297878770226</v>
       </c>
       <c r="J7" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03046451219103552</v>
+        <v>0.0310930629398295</v>
       </c>
       <c r="M7" t="n">
-        <v>13.96697594233238</v>
+        <v>13.92983823453529</v>
       </c>
       <c r="N7" t="n">
-        <v>354.6624117204769</v>
+        <v>353.4432444084395</v>
       </c>
       <c r="O7" t="n">
-        <v>18.83248288783178</v>
+        <v>18.80008628726048</v>
       </c>
       <c r="P7" t="n">
-        <v>363.7880994602294</v>
+        <v>363.8197896756079</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22843,7 +22907,7 @@
         <v>-0.3175304435666055</v>
       </c>
       <c r="J8" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K8" t="n">
         <v>270</v>
@@ -22918,28 +22982,28 @@
         <v>0.1451</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5496936404299884</v>
+        <v>-0.550228103923748</v>
       </c>
       <c r="J9" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K9" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06395594631963064</v>
+        <v>0.06452583821822189</v>
       </c>
       <c r="M9" t="n">
-        <v>11.26957869782576</v>
+        <v>11.22949939019436</v>
       </c>
       <c r="N9" t="n">
-        <v>249.6119804134084</v>
+        <v>248.665022197962</v>
       </c>
       <c r="O9" t="n">
-        <v>15.79911327933971</v>
+        <v>15.7691160880362</v>
       </c>
       <c r="P9" t="n">
-        <v>376.0368157123571</v>
+        <v>376.0421404267706</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22990,28 +23054,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.2346398744517381</v>
+        <v>-0.2310446407958774</v>
       </c>
       <c r="J10" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K10" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006191514013439869</v>
+        <v>0.006046574290322071</v>
       </c>
       <c r="M10" t="n">
-        <v>15.74685038706315</v>
+        <v>15.70772248658682</v>
       </c>
       <c r="N10" t="n">
-        <v>495.9309552871602</v>
+        <v>494.1308575120513</v>
       </c>
       <c r="O10" t="n">
-        <v>22.26950729780882</v>
+        <v>22.22905435487644</v>
       </c>
       <c r="P10" t="n">
-        <v>357.7980869931948</v>
+        <v>357.761670019057</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23071,7 +23135,7 @@
         <v>-0.1973035314682036</v>
       </c>
       <c r="J11" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K11" t="n">
         <v>242</v>
@@ -23146,28 +23210,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4922641188260411</v>
+        <v>-0.5009464647691979</v>
       </c>
       <c r="J12" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K12" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02861779227868655</v>
+        <v>0.02978000531958747</v>
       </c>
       <c r="M12" t="n">
-        <v>15.84933437449225</v>
+        <v>15.83621790589581</v>
       </c>
       <c r="N12" t="n">
-        <v>458.2448235229841</v>
+        <v>456.9797518432461</v>
       </c>
       <c r="O12" t="n">
-        <v>21.40665372081737</v>
+        <v>21.37708473677471</v>
       </c>
       <c r="P12" t="n">
-        <v>370.8731015957667</v>
+        <v>370.9623749141454</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23224,28 +23288,28 @@
         <v>0.1671</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.175757620846161</v>
+        <v>-0.1834071662040812</v>
       </c>
       <c r="J13" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K13" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006123231969943577</v>
+        <v>0.006703894678712352</v>
       </c>
       <c r="M13" t="n">
-        <v>12.87700481819449</v>
+        <v>12.8666654683662</v>
       </c>
       <c r="N13" t="n">
-        <v>295.750260951199</v>
+        <v>295.1049995687895</v>
       </c>
       <c r="O13" t="n">
-        <v>17.19739110886297</v>
+        <v>17.17862042099975</v>
       </c>
       <c r="P13" t="n">
-        <v>371.3952634214972</v>
+        <v>371.4684037005229</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23305,7 +23369,7 @@
         <v>-0.1713363059584119</v>
       </c>
       <c r="J14" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K14" t="n">
         <v>267</v>
@@ -23383,7 +23447,7 @@
         <v>-0.1485095307675658</v>
       </c>
       <c r="J15" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K15" t="n">
         <v>253</v>
@@ -23452,28 +23516,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.4897560808776649</v>
+        <v>-0.4832973553172765</v>
       </c>
       <c r="J16" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K16" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02820714630765575</v>
+        <v>0.0276765218107925</v>
       </c>
       <c r="M16" t="n">
-        <v>15.21734534309769</v>
+        <v>15.18635979716612</v>
       </c>
       <c r="N16" t="n">
-        <v>452.5570907417017</v>
+        <v>450.9999595038893</v>
       </c>
       <c r="O16" t="n">
-        <v>21.27338926315461</v>
+        <v>21.23675962815159</v>
       </c>
       <c r="P16" t="n">
-        <v>374.9304067702572</v>
+        <v>374.8635879364888</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23524,28 +23588,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.2924052461361376</v>
+        <v>-0.34051549437412</v>
       </c>
       <c r="J17" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K17" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003234725095540569</v>
+        <v>0.004418704585968047</v>
       </c>
       <c r="M17" t="n">
-        <v>27.92962853153911</v>
+        <v>28.03742237673158</v>
       </c>
       <c r="N17" t="n">
-        <v>1547.181623007522</v>
+        <v>1544.422033342649</v>
       </c>
       <c r="O17" t="n">
-        <v>39.33422966078682</v>
+        <v>39.29913527474426</v>
       </c>
       <c r="P17" t="n">
-        <v>349.722105023662</v>
+        <v>350.1969917958356</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23583,7 +23647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R353"/>
+  <dimension ref="A1:R354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49760,10 +49824,90 @@
           <t>-37.76582498798968,174.83212594503934</t>
         </is>
       </c>
-      <c r="Q353" t="inlineStr"/>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>-37.76504854558306,174.8324951877123</t>
+        </is>
+      </c>
       <c r="R353" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-37.77570230112355,174.83361344900962</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-37.77501429650141,174.83338024930816</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-37.774257790065,174.8336179150049</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-37.77352160947358,174.8337702535141</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-37.77283007094496,174.83357919139993</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-37.77212117407448,174.8335035647941</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-37.77073046176345,174.83310683132376</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>-37.7700229564267,174.8330128466614</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>-37.76860113015422,174.83292513449192</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>-37.76790532329721,174.832718788556</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr"/>
+      <c r="O354" t="inlineStr"/>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>-37.76582411101139,174.8321320848629</t>
+        </is>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>-37.76500022418364,174.83282085313155</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R354"/>
+  <dimension ref="A1:R355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18552,6 +18552,64 @@
         </is>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>402.5629411764706</v>
+      </c>
+      <c r="C355" t="n">
+        <v>393.4769230769231</v>
+      </c>
+      <c r="D355" t="n">
+        <v>378.3452631578948</v>
+      </c>
+      <c r="E355" t="n">
+        <v>364.8233333333333</v>
+      </c>
+      <c r="F355" t="n">
+        <v>348.2086206896552</v>
+      </c>
+      <c r="G355" t="n">
+        <v>348.1329411764706</v>
+      </c>
+      <c r="H355" t="n">
+        <v>366.8012820512821</v>
+      </c>
+      <c r="I355" t="n">
+        <v>376.9481818181818</v>
+      </c>
+      <c r="J355" t="n">
+        <v>371.6326530612245</v>
+      </c>
+      <c r="K355" t="n">
+        <v>376.8014814814815</v>
+      </c>
+      <c r="L355" t="n">
+        <v>331.37</v>
+      </c>
+      <c r="M355" t="n">
+        <v>358.3084615384616</v>
+      </c>
+      <c r="N355" t="n">
+        <v>378.9266666666667</v>
+      </c>
+      <c r="O355" t="inlineStr"/>
+      <c r="P355" t="n">
+        <v>380.8514814814815</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>292.5014814814814</v>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18563,7 +18621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22281,6 +22339,16 @@
       </c>
       <c r="B371" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -22454,28 +22522,28 @@
         <v>0.1151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4068260583443039</v>
+        <v>-0.3925034102594854</v>
       </c>
       <c r="J2" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02441485396452747</v>
+        <v>0.02282569550417113</v>
       </c>
       <c r="M2" t="n">
-        <v>15.15344566710109</v>
+        <v>15.17363286692192</v>
       </c>
       <c r="N2" t="n">
-        <v>384.1752223816171</v>
+        <v>384.3429926998277</v>
       </c>
       <c r="O2" t="n">
-        <v>19.60038832221487</v>
+        <v>19.60466762533422</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3268763153119</v>
+        <v>392.1839588268761</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22532,28 +22600,28 @@
         <v>0.0809</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1785361149599439</v>
+        <v>-0.1686697328731443</v>
       </c>
       <c r="J3" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K3" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003476416607606669</v>
+        <v>0.003123842774270358</v>
       </c>
       <c r="M3" t="n">
-        <v>16.92589963122261</v>
+        <v>16.90725636134614</v>
       </c>
       <c r="N3" t="n">
-        <v>530.105403961909</v>
+        <v>528.667596417898</v>
       </c>
       <c r="O3" t="n">
-        <v>23.02401798040275</v>
+        <v>22.99277269965278</v>
       </c>
       <c r="P3" t="n">
-        <v>384.6878387052531</v>
+        <v>384.5904708500724</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22610,28 +22678,28 @@
         <v>0.121</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3612069617495011</v>
+        <v>-0.3594823458400075</v>
       </c>
       <c r="J4" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K4" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02346844986980845</v>
+        <v>0.02342074225562552</v>
       </c>
       <c r="M4" t="n">
-        <v>13.66275298420118</v>
+        <v>13.6182130809831</v>
       </c>
       <c r="N4" t="n">
-        <v>311.2526766512871</v>
+        <v>310.0302137071629</v>
       </c>
       <c r="O4" t="n">
-        <v>17.64235462321532</v>
+        <v>17.60767485238079</v>
       </c>
       <c r="P4" t="n">
-        <v>385.3165061498075</v>
+        <v>385.2992872479973</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22688,28 +22756,28 @@
         <v>0.0823</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6811315487757903</v>
+        <v>-0.6842376205217161</v>
       </c>
       <c r="J5" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K5" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06815883695848812</v>
+        <v>0.06921571833082274</v>
       </c>
       <c r="M5" t="n">
-        <v>14.59244306960701</v>
+        <v>14.5497075431891</v>
       </c>
       <c r="N5" t="n">
-        <v>371.1329049209601</v>
+        <v>369.7104406239048</v>
       </c>
       <c r="O5" t="n">
-        <v>19.26481001517949</v>
+        <v>19.22785585092381</v>
       </c>
       <c r="P5" t="n">
-        <v>386.782270284101</v>
+        <v>386.8127744306225</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22760,28 +22828,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4288052049696732</v>
+        <v>-0.4405379423896435</v>
       </c>
       <c r="J6" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K6" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03143341013861456</v>
+        <v>0.03325380781710396</v>
       </c>
       <c r="M6" t="n">
-        <v>13.69093359227969</v>
+        <v>13.70031355922752</v>
       </c>
       <c r="N6" t="n">
-        <v>313.4400309399638</v>
+        <v>313.2367549495468</v>
       </c>
       <c r="O6" t="n">
-        <v>17.70423765486568</v>
+        <v>17.6984958386171</v>
       </c>
       <c r="P6" t="n">
-        <v>375.5794938979454</v>
+        <v>375.6996615529819</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22832,28 +22900,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4470297878770226</v>
+        <v>-0.4497713782932006</v>
       </c>
       <c r="J7" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K7" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0310930629398295</v>
+        <v>0.03167272871083471</v>
       </c>
       <c r="M7" t="n">
-        <v>13.92983823453529</v>
+        <v>13.89107427950121</v>
       </c>
       <c r="N7" t="n">
-        <v>353.4432444084395</v>
+        <v>352.2141188476334</v>
       </c>
       <c r="O7" t="n">
-        <v>18.80008628726048</v>
+        <v>18.76736845824777</v>
       </c>
       <c r="P7" t="n">
-        <v>363.8197896756079</v>
+        <v>363.8472702869315</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22904,28 +22972,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.3175304435666055</v>
+        <v>-0.3132094100771213</v>
       </c>
       <c r="J8" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K8" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01328575031787027</v>
+        <v>0.01301441857548746</v>
       </c>
       <c r="M8" t="n">
-        <v>14.50551069550028</v>
+        <v>14.47605294595421</v>
       </c>
       <c r="N8" t="n">
-        <v>422.9302331543134</v>
+        <v>421.5233117908306</v>
       </c>
       <c r="O8" t="n">
-        <v>20.56526764120305</v>
+        <v>20.53103289634573</v>
       </c>
       <c r="P8" t="n">
-        <v>368.5406327035823</v>
+        <v>368.4967982194595</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22982,28 +23050,28 @@
         <v>0.1451</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.550228103923748</v>
+        <v>-0.5395770703225524</v>
       </c>
       <c r="J9" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K9" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06452583821822189</v>
+        <v>0.06243911959004578</v>
       </c>
       <c r="M9" t="n">
-        <v>11.22949939019436</v>
+        <v>11.24576493975918</v>
       </c>
       <c r="N9" t="n">
-        <v>248.665022197962</v>
+        <v>248.5842572268536</v>
       </c>
       <c r="O9" t="n">
-        <v>15.7691160880362</v>
+        <v>15.76655502089323</v>
       </c>
       <c r="P9" t="n">
-        <v>376.0421404267706</v>
+        <v>375.9359088651941</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23054,28 +23122,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.2310446407958774</v>
+        <v>-0.2172716748007786</v>
       </c>
       <c r="J10" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K10" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006046574290322071</v>
+        <v>0.005373067841724422</v>
       </c>
       <c r="M10" t="n">
-        <v>15.70772248658682</v>
+        <v>15.72877688468191</v>
       </c>
       <c r="N10" t="n">
-        <v>494.1308575120513</v>
+        <v>493.7334519235402</v>
       </c>
       <c r="O10" t="n">
-        <v>22.22905435487644</v>
+        <v>22.22011367935682</v>
       </c>
       <c r="P10" t="n">
-        <v>357.761670019057</v>
+        <v>357.6220001222023</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23132,28 +23200,28 @@
         <v>0.1767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1973035314682036</v>
+        <v>-0.1786899572003611</v>
       </c>
       <c r="J11" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K11" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002146727434574336</v>
+        <v>0.001770448171417804</v>
       </c>
       <c r="M11" t="n">
-        <v>21.77211522265061</v>
+        <v>21.77866683313675</v>
       </c>
       <c r="N11" t="n">
-        <v>982.7882364371196</v>
+        <v>981.2143696534265</v>
       </c>
       <c r="O11" t="n">
-        <v>31.34945352692962</v>
+        <v>31.32434148794555</v>
       </c>
       <c r="P11" t="n">
-        <v>357.2677844834181</v>
+        <v>357.0730927307061</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23210,28 +23278,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5009464647691979</v>
+        <v>-0.5199702704767786</v>
       </c>
       <c r="J12" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K12" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02978000531958747</v>
+        <v>0.03204457505421154</v>
       </c>
       <c r="M12" t="n">
-        <v>15.83621790589581</v>
+        <v>15.88719978678152</v>
       </c>
       <c r="N12" t="n">
-        <v>456.9797518432461</v>
+        <v>457.9530746238528</v>
       </c>
       <c r="O12" t="n">
-        <v>21.37708473677471</v>
+        <v>21.39983819153436</v>
       </c>
       <c r="P12" t="n">
-        <v>370.9623749141454</v>
+        <v>371.1582114004289</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23288,28 +23356,28 @@
         <v>0.1671</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1834071662040812</v>
+        <v>-0.1891252302539604</v>
       </c>
       <c r="J13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K13" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006703894678712352</v>
+        <v>0.007172003754382317</v>
       </c>
       <c r="M13" t="n">
-        <v>12.8666654683662</v>
+        <v>12.84732985827109</v>
       </c>
       <c r="N13" t="n">
-        <v>295.1049995687895</v>
+        <v>294.2678193178614</v>
       </c>
       <c r="O13" t="n">
-        <v>17.17862042099975</v>
+        <v>17.1542361916193</v>
       </c>
       <c r="P13" t="n">
-        <v>371.4684037005229</v>
+        <v>371.523138724274</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23366,28 +23434,28 @@
         <v>0.1678</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1713363059584119</v>
+        <v>-0.1601396966879016</v>
       </c>
       <c r="J14" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K14" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003690885475256644</v>
+        <v>0.00324161834881076</v>
       </c>
       <c r="M14" t="n">
-        <v>16.55677303436273</v>
+        <v>16.55370682212767</v>
       </c>
       <c r="N14" t="n">
-        <v>467.7534638443518</v>
+        <v>467.0443208678641</v>
       </c>
       <c r="O14" t="n">
-        <v>21.62760883325643</v>
+        <v>21.61120822323139</v>
       </c>
       <c r="P14" t="n">
-        <v>366.6108487558917</v>
+        <v>366.5020177033194</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23447,7 +23515,7 @@
         <v>-0.1485095307675658</v>
       </c>
       <c r="J15" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K15" t="n">
         <v>253</v>
@@ -23516,28 +23584,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.4832973553172765</v>
+        <v>-0.4694820750604558</v>
       </c>
       <c r="J16" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K16" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0276765218107925</v>
+        <v>0.02627286329060441</v>
       </c>
       <c r="M16" t="n">
-        <v>15.18635979716612</v>
+        <v>15.19191230916562</v>
       </c>
       <c r="N16" t="n">
-        <v>450.9999595038893</v>
+        <v>450.5414516586105</v>
       </c>
       <c r="O16" t="n">
-        <v>21.23675962815159</v>
+        <v>21.22596173695342</v>
       </c>
       <c r="P16" t="n">
-        <v>374.8635879364888</v>
+        <v>374.720499228254</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23588,28 +23656,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.34051549437412</v>
+        <v>-0.3767091295522161</v>
       </c>
       <c r="J17" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K17" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004418704585968047</v>
+        <v>0.005408070127944975</v>
       </c>
       <c r="M17" t="n">
-        <v>28.03742237673158</v>
+        <v>28.18234083643481</v>
       </c>
       <c r="N17" t="n">
-        <v>1544.422033342649</v>
+        <v>1547.93827956145</v>
       </c>
       <c r="O17" t="n">
-        <v>39.29913527474426</v>
+        <v>39.34384678144029</v>
       </c>
       <c r="P17" t="n">
-        <v>350.1969917958356</v>
+        <v>350.5553178827351</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23647,7 +23715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R354"/>
+  <dimension ref="A1:R355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49911,6 +49979,94 @@
         </is>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-37.77571903578186,174.8334981712605</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-37.775004289878126,174.83344918037324</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-37.77427933601361,174.8334675906908</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-37.773554939823235,174.83347150790124</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-37.772830196353226,174.83357766124</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-37.772121731864935,174.83349754951382</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-37.77143899254061,174.83318288973558</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>-37.770754697330176,174.83292899401818</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>-37.770043262337545,174.8328471411254</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>-37.76934188289896,174.83267755412405</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>-37.768584962516364,174.83309099847233</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>-37.767908707086896,174.83268948958155</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>-37.76723787142606,174.83232092451738</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr"/>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>-37.765840112269906,174.83202005788215</t>
+        </is>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>-37.76499556992482,174.8328522204904</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R355"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18597,7 +18597,9 @@
       <c r="N355" t="n">
         <v>378.9266666666667</v>
       </c>
-      <c r="O355" t="inlineStr"/>
+      <c r="O355" t="n">
+        <v>397.3814814814814</v>
+      </c>
       <c r="P355" t="n">
         <v>380.8514814814815</v>
       </c>
@@ -18607,6 +18609,64 @@
       <c r="R355" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>401.5376470588236</v>
+      </c>
+      <c r="C356" t="n">
+        <v>391.5169230769231</v>
+      </c>
+      <c r="D356" t="n">
+        <v>380.211052631579</v>
+      </c>
+      <c r="E356" t="n">
+        <v>385.9033333333333</v>
+      </c>
+      <c r="F356" t="n">
+        <v>379.4565517241379</v>
+      </c>
+      <c r="G356" t="n">
+        <v>360.9576470588235</v>
+      </c>
+      <c r="H356" t="n">
+        <v>384.1512820512821</v>
+      </c>
+      <c r="I356" t="n">
+        <v>369.6445454545454</v>
+      </c>
+      <c r="J356" t="n">
+        <v>356.4936734693878</v>
+      </c>
+      <c r="K356" t="n">
+        <v>369.5281481481481</v>
+      </c>
+      <c r="L356" t="inlineStr"/>
+      <c r="M356" t="n">
+        <v>373.3584615384616</v>
+      </c>
+      <c r="N356" t="n">
+        <v>357.4066666666667</v>
+      </c>
+      <c r="O356" t="n">
+        <v>370.9081481481481</v>
+      </c>
+      <c r="P356" t="n">
+        <v>372.5381481481481</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>316.6681481481481</v>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22349,6 +22409,16 @@
       </c>
       <c r="B372" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>
@@ -22522,28 +22592,28 @@
         <v>0.1151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3925034102594854</v>
+        <v>-0.379021133994442</v>
       </c>
       <c r="J2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K2" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02282569550417113</v>
+        <v>0.02138640722249152</v>
       </c>
       <c r="M2" t="n">
-        <v>15.17363286692192</v>
+        <v>15.18819174993178</v>
       </c>
       <c r="N2" t="n">
-        <v>384.3429926998277</v>
+        <v>384.3207347978573</v>
       </c>
       <c r="O2" t="n">
-        <v>19.60466762533422</v>
+        <v>19.60409994868056</v>
       </c>
       <c r="P2" t="n">
-        <v>392.1839588268761</v>
+        <v>392.0486156227687</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22600,28 +22670,28 @@
         <v>0.0809</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1686697328731443</v>
+        <v>-0.1603602167380998</v>
       </c>
       <c r="J3" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K3" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003123842774270358</v>
+        <v>0.002843810385396828</v>
       </c>
       <c r="M3" t="n">
-        <v>16.90725636134614</v>
+        <v>16.8810061777022</v>
       </c>
       <c r="N3" t="n">
-        <v>528.667596417898</v>
+        <v>527.0328638090759</v>
       </c>
       <c r="O3" t="n">
-        <v>22.99277269965278</v>
+        <v>22.95719634034339</v>
       </c>
       <c r="P3" t="n">
-        <v>384.5904708500724</v>
+        <v>384.5079908120063</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22678,28 +22748,28 @@
         <v>0.121</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3594823458400075</v>
+        <v>-0.3564050672918214</v>
       </c>
       <c r="J4" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K4" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02342074225562552</v>
+        <v>0.02319708461932035</v>
       </c>
       <c r="M4" t="n">
-        <v>13.6182130809831</v>
+        <v>13.58173846617083</v>
       </c>
       <c r="N4" t="n">
-        <v>310.0302137071629</v>
+        <v>308.8666923287247</v>
       </c>
       <c r="O4" t="n">
-        <v>17.60767485238079</v>
+        <v>17.57460361796888</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2992872479973</v>
+        <v>385.2683852937627</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22756,28 +22826,28 @@
         <v>0.0823</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6842376205217161</v>
+        <v>-0.6720783391432562</v>
       </c>
       <c r="J5" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K5" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06921571833082274</v>
+        <v>0.06722798888732684</v>
       </c>
       <c r="M5" t="n">
-        <v>14.5497075431891</v>
+        <v>14.56330110503283</v>
       </c>
       <c r="N5" t="n">
-        <v>369.7104406239048</v>
+        <v>369.3586630201972</v>
       </c>
       <c r="O5" t="n">
-        <v>19.22785585092381</v>
+        <v>19.21870607039395</v>
       </c>
       <c r="P5" t="n">
-        <v>386.8127744306225</v>
+        <v>386.692657797258</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22828,28 +22898,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4405379423896435</v>
+        <v>-0.4295642951353574</v>
       </c>
       <c r="J6" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K6" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03325380781710396</v>
+        <v>0.03181246045127062</v>
       </c>
       <c r="M6" t="n">
-        <v>13.70031355922752</v>
+        <v>13.70611527091264</v>
       </c>
       <c r="N6" t="n">
-        <v>313.2367549495468</v>
+        <v>312.9090645082666</v>
       </c>
       <c r="O6" t="n">
-        <v>17.6984958386171</v>
+        <v>17.68923583731831</v>
       </c>
       <c r="P6" t="n">
-        <v>375.6996615529819</v>
+        <v>375.5866408788468</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22900,28 +22970,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4497713782932006</v>
+        <v>-0.4438848656764215</v>
       </c>
       <c r="J7" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K7" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03167272871083471</v>
+        <v>0.03106251631195156</v>
       </c>
       <c r="M7" t="n">
-        <v>13.89107427950121</v>
+        <v>13.87844061608363</v>
       </c>
       <c r="N7" t="n">
-        <v>352.2141188476334</v>
+        <v>351.2128083936694</v>
       </c>
       <c r="O7" t="n">
-        <v>18.76736845824777</v>
+        <v>18.74067257047274</v>
       </c>
       <c r="P7" t="n">
-        <v>363.8472702869315</v>
+        <v>363.7879318937738</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22972,28 +23042,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.3132094100771213</v>
+        <v>-0.2973550881312189</v>
       </c>
       <c r="J8" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K8" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01301441857548746</v>
+        <v>0.01176866477532679</v>
       </c>
       <c r="M8" t="n">
-        <v>14.47605294595421</v>
+        <v>14.51121416330365</v>
       </c>
       <c r="N8" t="n">
-        <v>421.5233117908306</v>
+        <v>422.034910055128</v>
       </c>
       <c r="O8" t="n">
-        <v>20.53103289634573</v>
+        <v>20.54348826404922</v>
       </c>
       <c r="P8" t="n">
-        <v>368.4967982194595</v>
+        <v>368.3350341280085</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23050,28 +23120,28 @@
         <v>0.1451</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5395770703225524</v>
+        <v>-0.5341392838251381</v>
       </c>
       <c r="J9" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K9" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06243911959004578</v>
+        <v>0.06164437194593697</v>
       </c>
       <c r="M9" t="n">
-        <v>11.24576493975918</v>
+        <v>11.23321622797849</v>
       </c>
       <c r="N9" t="n">
-        <v>248.5842572268536</v>
+        <v>247.8702368427046</v>
       </c>
       <c r="O9" t="n">
-        <v>15.76655502089323</v>
+        <v>15.74389522458482</v>
       </c>
       <c r="P9" t="n">
-        <v>375.9359088651941</v>
+        <v>375.8813719140058</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23122,28 +23192,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.2172716748007786</v>
+        <v>-0.2141343724067316</v>
       </c>
       <c r="J10" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K10" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005373067841724422</v>
+        <v>0.005256629600052021</v>
       </c>
       <c r="M10" t="n">
-        <v>15.72877688468191</v>
+        <v>15.68770060018322</v>
       </c>
       <c r="N10" t="n">
-        <v>493.7334519235402</v>
+        <v>491.9331452705096</v>
       </c>
       <c r="O10" t="n">
-        <v>22.22011367935682</v>
+        <v>22.17956593963258</v>
       </c>
       <c r="P10" t="n">
-        <v>357.6220001222023</v>
+        <v>357.5900029304836</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23200,28 +23270,28 @@
         <v>0.1767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1786899572003611</v>
+        <v>-0.1657832216900476</v>
       </c>
       <c r="J11" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K11" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001770448171417804</v>
+        <v>0.001534147061999835</v>
       </c>
       <c r="M11" t="n">
-        <v>21.77866683313675</v>
+        <v>21.75565919712046</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2143696534265</v>
+        <v>978.3780289606036</v>
       </c>
       <c r="O11" t="n">
-        <v>31.32434148794555</v>
+        <v>31.27903497489338</v>
       </c>
       <c r="P11" t="n">
-        <v>357.0730927307061</v>
+        <v>356.9373309375378</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23281,7 +23351,7 @@
         <v>-0.5199702704767786</v>
       </c>
       <c r="J12" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K12" t="n">
         <v>250</v>
@@ -23356,28 +23426,28 @@
         <v>0.1671</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1891252302539604</v>
+        <v>-0.1845355609223664</v>
       </c>
       <c r="J13" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K13" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007172003754382317</v>
+        <v>0.006877569006312867</v>
       </c>
       <c r="M13" t="n">
-        <v>12.84732985827109</v>
+        <v>12.82664233235284</v>
       </c>
       <c r="N13" t="n">
-        <v>294.2678193178614</v>
+        <v>293.3451289285712</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1542361916193</v>
+        <v>17.12732112528317</v>
       </c>
       <c r="P13" t="n">
-        <v>371.523138724274</v>
+        <v>371.4789548617646</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23434,28 +23504,28 @@
         <v>0.1678</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1601396966879016</v>
+        <v>-0.163430990084424</v>
       </c>
       <c r="J14" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K14" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00324161834881076</v>
+        <v>0.003399381784577771</v>
       </c>
       <c r="M14" t="n">
-        <v>16.55370682212767</v>
+        <v>16.51125696243865</v>
       </c>
       <c r="N14" t="n">
-        <v>467.0443208678641</v>
+        <v>465.3974124058699</v>
       </c>
       <c r="O14" t="n">
-        <v>21.61120822323139</v>
+        <v>21.57307146434809</v>
       </c>
       <c r="P14" t="n">
-        <v>366.5020177033194</v>
+        <v>366.5341968827257</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23512,28 +23582,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1485095307675658</v>
+        <v>-0.1234555560914656</v>
       </c>
       <c r="J15" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K15" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00304244537382703</v>
+        <v>0.002116739308644533</v>
       </c>
       <c r="M15" t="n">
-        <v>16.09376378894182</v>
+        <v>16.13334310714581</v>
       </c>
       <c r="N15" t="n">
-        <v>417.8810521241761</v>
+        <v>418.4173134880779</v>
       </c>
       <c r="O15" t="n">
-        <v>20.44213912789403</v>
+        <v>20.45525148924056</v>
       </c>
       <c r="P15" t="n">
-        <v>370.1567032755636</v>
+        <v>369.9083098441402</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23584,28 +23654,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.4694820750604558</v>
+        <v>-0.4620001590149761</v>
       </c>
       <c r="J16" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K16" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02627286329060441</v>
+        <v>0.02563082214554124</v>
       </c>
       <c r="M16" t="n">
-        <v>15.19191230916562</v>
+        <v>15.16635254659355</v>
       </c>
       <c r="N16" t="n">
-        <v>450.5414516586105</v>
+        <v>449.1144788562559</v>
       </c>
       <c r="O16" t="n">
-        <v>21.22596173695342</v>
+        <v>21.19232122388333</v>
       </c>
       <c r="P16" t="n">
-        <v>374.720499228254</v>
+        <v>374.6425673811211</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23656,28 +23726,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.3767091295522161</v>
+        <v>-0.394523406759678</v>
       </c>
       <c r="J17" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K17" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005408070127944975</v>
+        <v>0.005964324252295095</v>
       </c>
       <c r="M17" t="n">
-        <v>28.18234083643481</v>
+        <v>28.19036717556735</v>
       </c>
       <c r="N17" t="n">
-        <v>1547.93827956145</v>
+        <v>1543.754841100681</v>
       </c>
       <c r="O17" t="n">
-        <v>39.34384678144029</v>
+        <v>39.29064572007797</v>
       </c>
       <c r="P17" t="n">
-        <v>350.5553178827351</v>
+        <v>350.7327861175153</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23715,7 +23785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R355"/>
+  <dimension ref="A1:R356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50050,7 +50120,11 @@
           <t>-37.76723787142606,174.83232092451738</t>
         </is>
       </c>
-      <c r="O355" t="inlineStr"/>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>-37.76656455862362,174.83197658448657</t>
+        </is>
+      </c>
       <c r="P355" t="inlineStr">
         <is>
           <t>-37.765840112269906,174.83202005788215</t>
@@ -50064,6 +50138,94 @@
       <c r="R355" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-37.77571737376352,174.83350962021552</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-37.77500111268896,174.83347106651902</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-37.77428232334171,174.83344674823596</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-37.773581376154944,174.83323454954785</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-37.77285911280265,174.83322483268387</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-37.77213513965333,174.8333529572658</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>-37.77146233376565,174.8329881561597</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>-37.77074356225261,174.83301070196674</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>-37.77002245116063,174.83301696983878</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>-37.76933343678927,174.83275942342624</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr"/>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>-37.7679282303447,174.83252044368595</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>-37.76720568018946,174.83256179611558</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>-37.7665244282441,174.83227278258843</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>-37.765826847726316,174.83211292480652</t>
+        </is>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>-37.765035576293144,174.83258259577417</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:R358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18648,7 +18648,9 @@
       <c r="K356" t="n">
         <v>369.5281481481481</v>
       </c>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>373.2025</v>
+      </c>
       <c r="M356" t="n">
         <v>373.3584615384616</v>
       </c>
@@ -18667,6 +18669,114 @@
       <c r="R356" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>374.8205882352942</v>
+      </c>
+      <c r="C357" t="n">
+        <v>376.4284615384615</v>
+      </c>
+      <c r="D357" t="n">
+        <v>369.1668421052632</v>
+      </c>
+      <c r="E357" t="n">
+        <v>373.4433333333333</v>
+      </c>
+      <c r="F357" t="n">
+        <v>369.2703448275862</v>
+      </c>
+      <c r="G357" t="n">
+        <v>346.7605882352942</v>
+      </c>
+      <c r="H357" t="n">
+        <v>355.1789743589744</v>
+      </c>
+      <c r="I357" t="n">
+        <v>364.3272727272728</v>
+      </c>
+      <c r="J357" t="n">
+        <v>348.3685714285714</v>
+      </c>
+      <c r="K357" t="n">
+        <v>353.0103703703704</v>
+      </c>
+      <c r="L357" t="n">
+        <v>354.02</v>
+      </c>
+      <c r="M357" t="n">
+        <v>362.9292307692308</v>
+      </c>
+      <c r="N357" t="n">
+        <v>350.9066666666667</v>
+      </c>
+      <c r="O357" t="n">
+        <v>353.6703703703704</v>
+      </c>
+      <c r="P357" t="n">
+        <v>364.4603703703704</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>317.5103703703704</v>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>395.7411764705882</v>
+      </c>
+      <c r="C358" t="n">
+        <v>388.2692307692308</v>
+      </c>
+      <c r="D358" t="n">
+        <v>380.7942105263158</v>
+      </c>
+      <c r="E358" t="n">
+        <v>373.77</v>
+      </c>
+      <c r="F358" t="n">
+        <v>363.5741379310345</v>
+      </c>
+      <c r="G358" t="n">
+        <v>323.6911764705882</v>
+      </c>
+      <c r="H358" t="n">
+        <v>364.7661538461539</v>
+      </c>
+      <c r="I358" t="n">
+        <v>367.7554545454545</v>
+      </c>
+      <c r="J358" t="n">
+        <v>374.6520408163265</v>
+      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
+      <c r="M358" t="n">
+        <v>402.6946153846154</v>
+      </c>
+      <c r="N358" t="inlineStr"/>
+      <c r="O358" t="inlineStr"/>
+      <c r="P358" t="inlineStr"/>
+      <c r="Q358" t="inlineStr"/>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18681,7 +18791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22419,6 +22529,26 @@
       </c>
       <c r="B373" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -22592,28 +22722,28 @@
         <v>0.1151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.379021133994442</v>
+        <v>-0.3747836857629606</v>
       </c>
       <c r="J2" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K2" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02138640722249152</v>
+        <v>0.02116255741428885</v>
       </c>
       <c r="M2" t="n">
-        <v>15.18819174993178</v>
+        <v>15.15076006035193</v>
       </c>
       <c r="N2" t="n">
-        <v>384.3207347978573</v>
+        <v>382.2639733526382</v>
       </c>
       <c r="O2" t="n">
-        <v>19.60409994868056</v>
+        <v>19.55157214529405</v>
       </c>
       <c r="P2" t="n">
-        <v>392.0486156227687</v>
+        <v>392.0058643319956</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22670,28 +22800,28 @@
         <v>0.0809</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1603602167380998</v>
+        <v>-0.1574351535539055</v>
       </c>
       <c r="J3" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K3" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002843810385396828</v>
+        <v>0.002782110819137706</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8810061777022</v>
+        <v>16.7914100494184</v>
       </c>
       <c r="N3" t="n">
-        <v>527.0328638090759</v>
+        <v>523.0976469886983</v>
       </c>
       <c r="O3" t="n">
-        <v>22.95719634034339</v>
+        <v>22.87132805476539</v>
       </c>
       <c r="P3" t="n">
-        <v>384.5079908120063</v>
+        <v>384.478823500116</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22748,28 +22878,28 @@
         <v>0.121</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3564050672918214</v>
+        <v>-0.3578060597317379</v>
       </c>
       <c r="J4" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K4" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02319708461932035</v>
+        <v>0.02369990355449159</v>
       </c>
       <c r="M4" t="n">
-        <v>13.58173846617083</v>
+        <v>13.52000621218459</v>
       </c>
       <c r="N4" t="n">
-        <v>308.8666923287247</v>
+        <v>306.7002448134912</v>
       </c>
       <c r="O4" t="n">
-        <v>17.57460361796888</v>
+        <v>17.51285941282837</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2683852937627</v>
+        <v>385.2824460338551</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22826,28 +22956,28 @@
         <v>0.0823</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6720783391432562</v>
+        <v>-0.6658027212329041</v>
       </c>
       <c r="J5" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K5" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06722798888732684</v>
+        <v>0.06697392207856634</v>
       </c>
       <c r="M5" t="n">
-        <v>14.56330110503283</v>
+        <v>14.48395529525244</v>
       </c>
       <c r="N5" t="n">
-        <v>369.3586630201972</v>
+        <v>366.56919444865</v>
       </c>
       <c r="O5" t="n">
-        <v>19.21870607039395</v>
+        <v>19.1459968256722</v>
       </c>
       <c r="P5" t="n">
-        <v>386.692657797258</v>
+        <v>386.630481470117</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22898,28 +23028,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4295642951353574</v>
+        <v>-0.4266820791119165</v>
       </c>
       <c r="J6" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K6" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03181246045127062</v>
+        <v>0.03184492668199235</v>
       </c>
       <c r="M6" t="n">
-        <v>13.70611527091264</v>
+        <v>13.62240973775907</v>
       </c>
       <c r="N6" t="n">
-        <v>312.9090645082666</v>
+        <v>310.5865259537895</v>
       </c>
       <c r="O6" t="n">
-        <v>17.68923583731831</v>
+        <v>17.6234652084597</v>
       </c>
       <c r="P6" t="n">
-        <v>375.5866408788468</v>
+        <v>375.5568974153181</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22970,28 +23100,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4438848656764215</v>
+        <v>-0.4662318808187504</v>
       </c>
       <c r="J7" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03106251631195156</v>
+        <v>0.03433795384289573</v>
       </c>
       <c r="M7" t="n">
-        <v>13.87844061608363</v>
+        <v>13.87902112038758</v>
       </c>
       <c r="N7" t="n">
-        <v>351.2128083936694</v>
+        <v>351.6766437096558</v>
       </c>
       <c r="O7" t="n">
-        <v>18.74067257047274</v>
+        <v>18.75304358523319</v>
       </c>
       <c r="P7" t="n">
-        <v>363.7879318937738</v>
+        <v>364.0139172336407</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23042,28 +23172,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.2973550881312189</v>
+        <v>-0.2981467782502484</v>
       </c>
       <c r="J8" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K8" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01176866477532679</v>
+        <v>0.01198670801001511</v>
       </c>
       <c r="M8" t="n">
-        <v>14.51121416330365</v>
+        <v>14.44014948345069</v>
       </c>
       <c r="N8" t="n">
-        <v>422.034910055128</v>
+        <v>419.1249677448759</v>
       </c>
       <c r="O8" t="n">
-        <v>20.54348826404922</v>
+        <v>20.47254179980776</v>
       </c>
       <c r="P8" t="n">
-        <v>368.3350341280085</v>
+        <v>368.3430976671733</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23120,28 +23250,28 @@
         <v>0.1451</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5341392838251381</v>
+        <v>-0.528497278756433</v>
       </c>
       <c r="J9" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K9" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06164437194593697</v>
+        <v>0.06124085037879401</v>
       </c>
       <c r="M9" t="n">
-        <v>11.23321622797849</v>
+        <v>11.17980987805091</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8702368427046</v>
+        <v>246.1580930968072</v>
       </c>
       <c r="O9" t="n">
-        <v>15.74389522458482</v>
+        <v>15.68942615575239</v>
       </c>
       <c r="P9" t="n">
-        <v>375.8813719140058</v>
+        <v>375.824617766817</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23192,28 +23322,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.2141343724067316</v>
+        <v>-0.2011537971797337</v>
       </c>
       <c r="J10" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K10" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005256629600052021</v>
+        <v>0.004689087486262178</v>
       </c>
       <c r="M10" t="n">
-        <v>15.68770060018322</v>
+        <v>15.67535607858631</v>
       </c>
       <c r="N10" t="n">
-        <v>491.9331452705096</v>
+        <v>490.1912755364093</v>
       </c>
       <c r="O10" t="n">
-        <v>22.17956593963258</v>
+        <v>22.14026367359723</v>
       </c>
       <c r="P10" t="n">
-        <v>357.5900029304836</v>
+        <v>357.4571342404129</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23270,28 +23400,28 @@
         <v>0.1767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1657832216900476</v>
+        <v>-0.1654880458398321</v>
       </c>
       <c r="J11" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K11" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001534147061999835</v>
+        <v>0.001540348157060722</v>
       </c>
       <c r="M11" t="n">
-        <v>21.75565919712046</v>
+        <v>21.66837536759912</v>
       </c>
       <c r="N11" t="n">
-        <v>978.3780289606036</v>
+        <v>974.3852757212595</v>
       </c>
       <c r="O11" t="n">
-        <v>31.27903497489338</v>
+        <v>31.21514497357428</v>
       </c>
       <c r="P11" t="n">
-        <v>356.9373309375378</v>
+        <v>356.9342191342847</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23348,28 +23478,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5199702704767786</v>
+        <v>-0.5115100672612871</v>
       </c>
       <c r="J12" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K12" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03204457505421154</v>
+        <v>0.03141356169837906</v>
       </c>
       <c r="M12" t="n">
-        <v>15.88719978678152</v>
+        <v>15.833165666969</v>
       </c>
       <c r="N12" t="n">
-        <v>457.9530746238528</v>
+        <v>455.3257610719043</v>
       </c>
       <c r="O12" t="n">
-        <v>21.39983819153436</v>
+        <v>21.338363598737</v>
       </c>
       <c r="P12" t="n">
-        <v>371.1582114004289</v>
+        <v>371.070672218984</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23426,28 +23556,28 @@
         <v>0.1671</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1845355609223664</v>
+        <v>-0.1629482457048756</v>
       </c>
       <c r="J13" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K13" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006877569006312867</v>
+        <v>0.005362744050154467</v>
       </c>
       <c r="M13" t="n">
-        <v>12.82664233235284</v>
+        <v>12.88965188301964</v>
       </c>
       <c r="N13" t="n">
-        <v>293.3451289285712</v>
+        <v>295.9700207573487</v>
       </c>
       <c r="O13" t="n">
-        <v>17.12732112528317</v>
+        <v>17.20377925798133</v>
       </c>
       <c r="P13" t="n">
-        <v>371.4789548617646</v>
+        <v>371.2704051502454</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23504,28 +23634,28 @@
         <v>0.1678</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.163430990084424</v>
+        <v>-0.170971522776147</v>
       </c>
       <c r="J14" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K14" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003399381784577771</v>
+        <v>0.00374184340931305</v>
       </c>
       <c r="M14" t="n">
-        <v>16.51125696243865</v>
+        <v>16.49386449788462</v>
       </c>
       <c r="N14" t="n">
-        <v>465.3974124058699</v>
+        <v>464.1471734924689</v>
       </c>
       <c r="O14" t="n">
-        <v>21.57307146434809</v>
+        <v>21.54407513662327</v>
       </c>
       <c r="P14" t="n">
-        <v>366.5341968827257</v>
+        <v>366.6080926517757</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23582,28 +23712,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1234555560914656</v>
+        <v>-0.1326132047292312</v>
       </c>
       <c r="J15" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K15" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002116739308644533</v>
+        <v>0.002456004374558174</v>
       </c>
       <c r="M15" t="n">
-        <v>16.13334310714581</v>
+        <v>16.1110247857114</v>
       </c>
       <c r="N15" t="n">
-        <v>418.4173134880779</v>
+        <v>417.4375876581054</v>
       </c>
       <c r="O15" t="n">
-        <v>20.45525148924056</v>
+        <v>20.43128942720222</v>
       </c>
       <c r="P15" t="n">
-        <v>369.9083098441402</v>
+        <v>369.9997756837441</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23654,28 +23784,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.4620001590149761</v>
+        <v>-0.4606236866348396</v>
       </c>
       <c r="J16" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K16" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02563082214554124</v>
+        <v>0.02567025945717194</v>
       </c>
       <c r="M16" t="n">
-        <v>15.16635254659355</v>
+        <v>15.11155059601624</v>
       </c>
       <c r="N16" t="n">
-        <v>449.1144788562559</v>
+        <v>447.3100391272793</v>
       </c>
       <c r="O16" t="n">
-        <v>21.19232122388333</v>
+        <v>21.149705414669</v>
       </c>
       <c r="P16" t="n">
-        <v>374.6425673811211</v>
+        <v>374.6281977693903</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23726,28 +23856,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.394523406759678</v>
+        <v>-0.4113617503872008</v>
       </c>
       <c r="J17" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K17" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005964324252295095</v>
+        <v>0.006520619460200217</v>
       </c>
       <c r="M17" t="n">
-        <v>28.19036717556735</v>
+        <v>28.19081312747356</v>
       </c>
       <c r="N17" t="n">
-        <v>1543.754841100681</v>
+        <v>1539.379850437275</v>
       </c>
       <c r="O17" t="n">
-        <v>39.29064572007797</v>
+        <v>39.23493150799776</v>
       </c>
       <c r="P17" t="n">
-        <v>350.7327861175153</v>
+        <v>350.9009475275439</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23785,7 +23915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:R358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50197,7 +50327,11 @@
           <t>-37.76933343678927,174.83275942342624</t>
         </is>
       </c>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>-37.768630900623606,174.832619712474</t>
+        </is>
+      </c>
       <c r="M356" t="inlineStr">
         <is>
           <t>-37.7679282303447,174.83252044368595</t>
@@ -50226,6 +50360,166 @@
       <c r="R356" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-37.77567406459134,174.83380795627227</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-37.77497665393365,174.8336395502615</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-37.77426464032869,174.83357012143145</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-37.773565750182975,174.8333746112918</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-37.77284968672795,174.83333984784312</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>-37.772120297106746,174.8335130221144</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>-37.7714233566908,174.83331333654954</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>-37.770735455537135,174.83307018785868</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>-37.77001128168591,174.8331081169971</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>-37.769314255420575,174.83294534895896</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>-37.76860983570937,174.83283582308397</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>-37.76791470129647,174.8326375877932</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>-37.76719595690414,174.83263455003845</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>-37.766498297456494,174.83246564806595</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>-37.76581395895986,174.83220316034263</t>
+        </is>
+      </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>-37.76503697052709,174.83257319919218</t>
+        </is>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-37.77570797757029,174.8335743465407</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-37.77499584812254,174.8335073315489</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-37.77428325703901,174.83344023386607</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-37.77356615985476,174.8333709392619</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-37.77284441554432,174.83340416520875</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-37.77209617835363,174.8337731182189</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>-37.77143625463005,174.8332057316744</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>-37.77074068214749,174.8330318357833</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>-37.77004741298543,174.83281326969274</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>-37.767966285287905,174.83219093134898</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr"/>
+      <c r="O358" t="inlineStr"/>
+      <c r="P358" t="inlineStr"/>
+      <c r="Q358" t="inlineStr"/>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R358"/>
+  <dimension ref="A1:R359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18765,8 +18765,12 @@
       <c r="J358" t="n">
         <v>374.6520408163265</v>
       </c>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>397.3855555555555</v>
+      </c>
+      <c r="L358" t="n">
+        <v>398.36</v>
+      </c>
       <c r="M358" t="n">
         <v>402.6946153846154</v>
       </c>
@@ -18775,6 +18779,64 @@
       <c r="P358" t="inlineStr"/>
       <c r="Q358" t="inlineStr"/>
       <c r="R358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>393.7505882352941</v>
+      </c>
+      <c r="C359" t="n">
+        <v>396.4569230769231</v>
+      </c>
+      <c r="D359" t="n">
+        <v>382.6789473684211</v>
+      </c>
+      <c r="E359" t="n">
+        <v>363.6</v>
+      </c>
+      <c r="F359" t="n">
+        <v>352.2810344827586</v>
+      </c>
+      <c r="G359" t="n">
+        <v>341.9805882352941</v>
+      </c>
+      <c r="H359" t="n">
+        <v>355.4946153846154</v>
+      </c>
+      <c r="I359" t="n">
+        <v>363.7654545454546</v>
+      </c>
+      <c r="J359" t="n">
+        <v>347.4775510204082</v>
+      </c>
+      <c r="K359" t="n">
+        <v>364.2833333333333</v>
+      </c>
+      <c r="L359" t="n">
+        <v>366.86</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+      <c r="N359" t="n">
+        <v>361.46</v>
+      </c>
+      <c r="O359" t="n">
+        <v>357.2933333333333</v>
+      </c>
+      <c r="P359" t="n">
+        <v>359.3833333333333</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>332.2133333333333</v>
+      </c>
+      <c r="R359" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18791,7 +18853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22549,6 +22611,16 @@
       </c>
       <c r="B375" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -23915,7 +23987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R358"/>
+  <dimension ref="A1:R359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50506,8 +50578,16 @@
           <t>-37.77004741298543,174.83281326969274</t>
         </is>
       </c>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>-37.76936578571153,174.83244585779866</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>-37.7686585262793,174.8323362871277</t>
+        </is>
+      </c>
       <c r="M358" t="inlineStr">
         <is>
           <t>-37.767966285287905,174.83219093134898</t>
@@ -50523,6 +50603,94 @@
         </is>
       </c>
     </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-37.77570475077937,174.8335965744526</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-37.77500912049477,174.83341590449461</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-37.77428627469901,174.83341917975056</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-37.77355340563199,174.83348525927366</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>-37.77283396497415,174.83353167856956</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-37.772115299729236,174.8335669142447</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>-37.77142378133432,174.83330979384888</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>-37.77073459898725,174.83307647308288</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>-37.77001005680721,174.83311811243627</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>-37.769327346248076,174.83281845952632</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>-37.76862393576588,174.83269116728115</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr"/>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>-37.76721174350796,174.83251642750488</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>-37.76650378954045,174.83242511243085</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>-37.76580585808992,174.83225987507663</t>
+        </is>
+      </c>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>-37.76506131002888,174.8324091597671</t>
+        </is>
+      </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -22794,28 +22794,28 @@
         <v>0.1151</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3747836857629606</v>
+        <v>-0.3669645820719892</v>
       </c>
       <c r="J2" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02116255741428885</v>
+        <v>0.02042049441813243</v>
       </c>
       <c r="M2" t="n">
-        <v>15.15076006035193</v>
+        <v>15.1348920272539</v>
       </c>
       <c r="N2" t="n">
-        <v>382.2639733526382</v>
+        <v>381.2978991165081</v>
       </c>
       <c r="O2" t="n">
-        <v>19.55157214529405</v>
+        <v>19.52685072192923</v>
       </c>
       <c r="P2" t="n">
-        <v>392.0058643319956</v>
+        <v>391.9267129243588</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22872,28 +22872,28 @@
         <v>0.0809</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1574351535539055</v>
+        <v>-0.1458553880699839</v>
       </c>
       <c r="J3" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K3" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002782110819137706</v>
+        <v>0.002402464468576948</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7914100494184</v>
+        <v>16.78310581875473</v>
       </c>
       <c r="N3" t="n">
-        <v>523.0976469886983</v>
+        <v>522.0255958553792</v>
       </c>
       <c r="O3" t="n">
-        <v>22.87132805476539</v>
+        <v>22.8478794608029</v>
       </c>
       <c r="P3" t="n">
-        <v>384.478823500116</v>
+        <v>384.362951716479</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22950,28 +22950,28 @@
         <v>0.121</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3578060597317379</v>
+        <v>-0.3530234929473486</v>
       </c>
       <c r="J4" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K4" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02369990355449159</v>
+        <v>0.02324101463774408</v>
       </c>
       <c r="M4" t="n">
-        <v>13.52000621218459</v>
+        <v>13.49459620074706</v>
       </c>
       <c r="N4" t="n">
-        <v>306.7002448134912</v>
+        <v>305.6707204424269</v>
       </c>
       <c r="O4" t="n">
-        <v>17.51285941282837</v>
+        <v>17.48344132150267</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2824460338551</v>
+        <v>385.2340322688113</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23028,28 +23028,28 @@
         <v>0.0823</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6658027212329041</v>
+        <v>-0.6697554365863478</v>
       </c>
       <c r="J5" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K5" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06697392207856634</v>
+        <v>0.06817277049760284</v>
       </c>
       <c r="M5" t="n">
-        <v>14.48395529525244</v>
+        <v>14.44762809416971</v>
       </c>
       <c r="N5" t="n">
-        <v>366.56919444865</v>
+        <v>365.2377455755044</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1459968256722</v>
+        <v>19.11119424775711</v>
       </c>
       <c r="P5" t="n">
-        <v>386.630481470117</v>
+        <v>386.6698490595668</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23100,28 +23100,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4266820791119165</v>
+        <v>-0.4352477219530458</v>
       </c>
       <c r="J6" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K6" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03184492668199235</v>
+        <v>0.03327269340417904</v>
       </c>
       <c r="M6" t="n">
-        <v>13.62240973775907</v>
+        <v>13.61568630066318</v>
       </c>
       <c r="N6" t="n">
-        <v>310.5865259537895</v>
+        <v>309.9495175509428</v>
       </c>
       <c r="O6" t="n">
-        <v>17.6234652084597</v>
+        <v>17.60538319807163</v>
       </c>
       <c r="P6" t="n">
-        <v>375.5568974153181</v>
+        <v>375.6458036317496</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23172,28 +23172,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.4662318808187504</v>
+        <v>-0.4726853150168372</v>
       </c>
       <c r="J7" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03433795384289573</v>
+        <v>0.03546550124553094</v>
       </c>
       <c r="M7" t="n">
-        <v>13.87902112038758</v>
+        <v>13.85891471519248</v>
       </c>
       <c r="N7" t="n">
-        <v>351.6766437096558</v>
+        <v>350.7555686921166</v>
       </c>
       <c r="O7" t="n">
-        <v>18.75304358523319</v>
+        <v>18.72846947009063</v>
       </c>
       <c r="P7" t="n">
-        <v>364.0139172336407</v>
+        <v>364.0794832203773</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23244,28 +23244,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.2981467782502484</v>
+        <v>-0.3014514269007227</v>
       </c>
       <c r="J8" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K8" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01198670801001511</v>
+        <v>0.01233075163295316</v>
       </c>
       <c r="M8" t="n">
-        <v>14.44014948345069</v>
+        <v>14.40516531641</v>
       </c>
       <c r="N8" t="n">
-        <v>419.1249677448759</v>
+        <v>417.6924603937636</v>
       </c>
       <c r="O8" t="n">
-        <v>20.47254179980776</v>
+        <v>20.4375257894336</v>
       </c>
       <c r="P8" t="n">
-        <v>368.3430976671733</v>
+        <v>368.3770867449324</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23322,28 +23322,28 @@
         <v>0.1451</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.528497278756433</v>
+        <v>-0.5272760929788002</v>
       </c>
       <c r="J9" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K9" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06124085037879401</v>
+        <v>0.06139692905864647</v>
       </c>
       <c r="M9" t="n">
-        <v>11.17980987805091</v>
+        <v>11.14473937071432</v>
       </c>
       <c r="N9" t="n">
-        <v>246.1580930968072</v>
+        <v>245.2512010478652</v>
       </c>
       <c r="O9" t="n">
-        <v>15.68942615575239</v>
+        <v>15.66049810982605</v>
       </c>
       <c r="P9" t="n">
-        <v>375.824617766817</v>
+        <v>375.8122753305775</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23394,28 +23394,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.2011537971797337</v>
+        <v>-0.2043643114373796</v>
       </c>
       <c r="J10" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K10" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004689087486262178</v>
+        <v>0.004872799873031575</v>
       </c>
       <c r="M10" t="n">
-        <v>15.67535607858631</v>
+        <v>15.63228757998182</v>
       </c>
       <c r="N10" t="n">
-        <v>490.1912755364093</v>
+        <v>488.4311091113134</v>
       </c>
       <c r="O10" t="n">
-        <v>22.14026367359723</v>
+        <v>22.10047757654376</v>
       </c>
       <c r="P10" t="n">
-        <v>357.4571342404129</v>
+        <v>357.4901390746408</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23472,28 +23472,28 @@
         <v>0.1767</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1654880458398321</v>
+        <v>-0.1240108424654885</v>
       </c>
       <c r="J11" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K11" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001540348157060722</v>
+        <v>0.0008710056974888802</v>
       </c>
       <c r="M11" t="n">
-        <v>21.66837536759912</v>
+        <v>21.70531176374341</v>
       </c>
       <c r="N11" t="n">
-        <v>974.3852757212595</v>
+        <v>975.0147458778803</v>
       </c>
       <c r="O11" t="n">
-        <v>31.21514497357428</v>
+        <v>31.22522611411934</v>
       </c>
       <c r="P11" t="n">
-        <v>356.9342191342847</v>
+        <v>356.4960768945094</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23550,28 +23550,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5115100672612871</v>
+        <v>-0.4768071602647301</v>
       </c>
       <c r="J12" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K12" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03141356169837906</v>
+        <v>0.02739579663263392</v>
       </c>
       <c r="M12" t="n">
-        <v>15.833165666969</v>
+        <v>15.89406713515757</v>
       </c>
       <c r="N12" t="n">
-        <v>455.3257610719043</v>
+        <v>458.4653223443344</v>
       </c>
       <c r="O12" t="n">
-        <v>21.338363598737</v>
+        <v>21.41180334171633</v>
       </c>
       <c r="P12" t="n">
-        <v>371.070672218984</v>
+        <v>370.7097783347094</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23631,7 +23631,7 @@
         <v>-0.1629482457048756</v>
       </c>
       <c r="J13" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K13" t="n">
         <v>272</v>
@@ -23706,28 +23706,28 @@
         <v>0.1678</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.170971522776147</v>
+        <v>-0.1714177107031067</v>
       </c>
       <c r="J14" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K14" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00374184340931305</v>
+        <v>0.003788307191747387</v>
       </c>
       <c r="M14" t="n">
-        <v>16.49386449788462</v>
+        <v>16.43559793863619</v>
       </c>
       <c r="N14" t="n">
-        <v>464.1471734924689</v>
+        <v>462.436107077937</v>
       </c>
       <c r="O14" t="n">
-        <v>21.54407513662327</v>
+        <v>21.50432763603496</v>
       </c>
       <c r="P14" t="n">
-        <v>366.6080926517757</v>
+        <v>366.6124904922623</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23784,28 +23784,28 @@
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1326132047292312</v>
+        <v>-0.1391021279756215</v>
       </c>
       <c r="J15" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K15" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002456004374558174</v>
+        <v>0.002719707594410203</v>
       </c>
       <c r="M15" t="n">
-        <v>16.1110247857114</v>
+        <v>16.07670943145141</v>
       </c>
       <c r="N15" t="n">
-        <v>417.4375876581054</v>
+        <v>416.141436956846</v>
       </c>
       <c r="O15" t="n">
-        <v>20.43128942720222</v>
+        <v>20.39954501837838</v>
       </c>
       <c r="P15" t="n">
-        <v>369.9997756837441</v>
+        <v>370.0649577201455</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23856,28 +23856,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.4606236866348396</v>
+        <v>-0.4629817394776344</v>
       </c>
       <c r="J16" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K16" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02567025945717194</v>
+        <v>0.02611775744677713</v>
       </c>
       <c r="M16" t="n">
-        <v>15.11155059601624</v>
+        <v>15.06490700565847</v>
       </c>
       <c r="N16" t="n">
-        <v>447.3100391272793</v>
+        <v>445.546890169586</v>
       </c>
       <c r="O16" t="n">
-        <v>21.149705414669</v>
+        <v>21.1079816697283</v>
       </c>
       <c r="P16" t="n">
-        <v>374.6281977693903</v>
+        <v>374.6529521343683</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23928,28 +23928,28 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.4113617503872008</v>
+        <v>-0.4171684361879914</v>
       </c>
       <c r="J17" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K17" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006520619460200217</v>
+        <v>0.006754598865030381</v>
       </c>
       <c r="M17" t="n">
-        <v>28.19081312747356</v>
+        <v>28.1119657540093</v>
       </c>
       <c r="N17" t="n">
-        <v>1539.379850437275</v>
+        <v>1533.093109374968</v>
       </c>
       <c r="O17" t="n">
-        <v>39.23493150799776</v>
+        <v>39.15473291155194</v>
       </c>
       <c r="P17" t="n">
-        <v>350.9009475275439</v>
+        <v>350.9592950037437</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">

--- a/data/nzd0223/nzd0223.xlsx
+++ b/data/nzd0223/nzd0223.xlsx
@@ -22785,13 +22785,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0694</v>
+        <v>0.0318</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1151</v>
+        <v>0.0448</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3669359743894773</v>
@@ -22863,13 +22863,13 @@
         <v>0.9333289871599815</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0551</v>
+        <v>0.0293</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0809</v>
+        <v>0.04</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1458572191617653</v>
@@ -22941,13 +22941,13 @@
         <v>0.8666579743199629</v>
       </c>
       <c r="F4" t="n">
-        <v>0.095</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0772</v>
+        <v>0.0413</v>
       </c>
       <c r="H4" t="n">
-        <v>0.121</v>
+        <v>0.0543</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3530215545839354</v>
@@ -23019,13 +23019,13 @@
         <v>0.7999980049296411</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0465</v>
+        <v>0.0435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0823</v>
+        <v>0.0515</v>
       </c>
       <c r="I5" t="n">
         <v>-0.6697969851727915</v>
@@ -23096,9 +23096,15 @@
       <c r="E6" t="n">
         <v>0.7333269920901745</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0496</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0667</v>
+      </c>
       <c r="I6" t="n">
         <v>-0.4352411825390424</v>
       </c>
@@ -23168,9 +23174,15 @@
       <c r="E7" t="n">
         <v>0.6666559792507079</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.09039999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1752</v>
+      </c>
       <c r="I7" t="n">
         <v>-0.472684076472257</v>
       </c>
@@ -23240,9 +23252,15 @@
       <c r="E8" t="n">
         <v>0.6000211161576967</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0497</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0776</v>
+      </c>
       <c r="I8" t="n">
         <v>-0.3014416603022971</v>
       </c>
@@ -23313,13 +23331,13 @@
         <v>0.5333501033182356</v>
       </c>
       <c r="F9" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0907</v>
+        <v>0.064</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1451</v>
+        <v>0.08</v>
       </c>
       <c r="I9" t="n">
         <v>-0.5272788423069025</v>
@@ -23390,9 +23408,15 @@
       <c r="E10" t="n">
         <v>0.4666790904787744</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0488</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.07140000000000001</v>
+      </c>
       <c r="I10" t="n">
         <v>-0.2044111738939465</v>
       </c>
@@ -23463,13 +23487,13 @@
         <v>0.4000239964340518</v>
       </c>
       <c r="F11" t="n">
-        <v>0.135</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1073</v>
+        <v>0.0499</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1767</v>
+        <v>0.0854</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1239910078046656</v>
@@ -23541,13 +23565,13 @@
         <v>0.3333529835943285</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1248</v>
+        <v>0.065</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2</v>
+        <v>0.1308</v>
       </c>
       <c r="I12" t="n">
         <v>-0.476807104475698</v>
@@ -23619,13 +23643,13 @@
         <v>0.2666819707542593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13</v>
+        <v>0.075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.107</v>
+        <v>0.0565</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1671</v>
+        <v>0.1102</v>
       </c>
       <c r="I13" t="n">
         <v>-0.162944151381158</v>
@@ -23697,13 +23721,13 @@
         <v>0.2000110243045634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12</v>
+        <v>0.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0915</v>
+        <v>0.0511</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1678</v>
+        <v>0.0961</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1713820343342406</v>
@@ -23775,13 +23799,13 @@
         <v>0.1333400114646837</v>
       </c>
       <c r="F15" t="n">
-        <v>0.135</v>
+        <v>0.045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1039</v>
+        <v>0.0363</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.0604</v>
       </c>
       <c r="I15" t="n">
         <v>-0.1390665825805836</v>
@@ -23852,9 +23876,15 @@
       <c r="E16" t="n">
         <v>0.06667101283942398</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0538</v>
+      </c>
       <c r="I16" t="n">
         <v>-0.4629432835273794</v>
       </c>
@@ -23924,9 +23954,15 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0318</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0478</v>
+      </c>
       <c r="I17" t="n">
         <v>-0.4171458984819228</v>
       </c>
